--- a/Documentation/Reward_Parameters.xlsx
+++ b/Documentation/Reward_Parameters.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\barthal\SimscapeSatelliteInspection\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\MATLAB\SimscapeSatelliteInspection\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95733B2A-4B53-4B65-ACA9-F6485BF9AAC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433387BA-4C6F-42A8-A032-5EEC33A4ADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6770" activeTab="2" xr2:uid="{21604E66-B88B-4810-977B-379932FB21BA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{21604E66-B88B-4810-977B-379932FB21BA}"/>
   </bookViews>
   <sheets>
     <sheet name="EE_Position" sheetId="4" r:id="rId1"/>
     <sheet name="EE_Orientation" sheetId="6" r:id="rId2"/>
-    <sheet name="2DV_Control" sheetId="7" r:id="rId3"/>
+    <sheet name="Control" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Bias</t>
   </si>
@@ -2436,775 +2445,775 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>EE_Orientation!$A$3:$A$302</c:f>
+              <c:f>EE_Orientation!$B$3:$B$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>-6.2831853071795862</c:v>
+                  <c:v>-360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.2331853071795864</c:v>
+                  <c:v>-357.13521102434589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.1831853071795866</c:v>
+                  <c:v>-354.27042204869178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.1331853071795868</c:v>
+                  <c:v>-351.40563307303768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.0831853071795869</c:v>
+                  <c:v>-348.54084409738357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.0331853071795871</c:v>
+                  <c:v>-345.67605512172952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9831853071795873</c:v>
+                  <c:v>-342.81126614607541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.9331853071795875</c:v>
+                  <c:v>-339.94647717042125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.8831853071795877</c:v>
+                  <c:v>-337.08168819476714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.8331853071795878</c:v>
+                  <c:v>-334.21689921911303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.783185307179588</c:v>
+                  <c:v>-331.35211024345892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.7331853071795882</c:v>
+                  <c:v>-328.48732126780482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.6831853071795884</c:v>
+                  <c:v>-325.62253229215071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.6331853071795885</c:v>
+                  <c:v>-322.7577433164966</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.5831853071795887</c:v>
+                  <c:v>-319.89295434084255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.5331853071795889</c:v>
+                  <c:v>-317.02816536518839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.4831853071795891</c:v>
+                  <c:v>-314.16337638953428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.4331853071795893</c:v>
+                  <c:v>-311.29858741388023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.3831853071795894</c:v>
+                  <c:v>-308.43379843822612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.3331853071795896</c:v>
+                  <c:v>-305.56900946257196</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.2831853071795898</c:v>
+                  <c:v>-302.70422048691785</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.23318530717959</c:v>
+                  <c:v>-299.8394315112638</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.1831853071795901</c:v>
+                  <c:v>-296.97464253560969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-5.1331853071795903</c:v>
+                  <c:v>-294.10985355995558</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.0831853071795905</c:v>
+                  <c:v>-291.24506458430142</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.0331853071795907</c:v>
+                  <c:v>-288.38027560864737</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.9831853071795909</c:v>
+                  <c:v>-285.51548663299326</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4.933185307179591</c:v>
+                  <c:v>-282.65069765733915</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.8831853071795912</c:v>
+                  <c:v>-279.78590868168504</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.8331853071795914</c:v>
+                  <c:v>-276.92111970603094</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.7831853071795916</c:v>
+                  <c:v>-274.05633073037683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.7331853071795917</c:v>
+                  <c:v>-271.19154175472272</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.6831853071795919</c:v>
+                  <c:v>-268.32675277906861</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.6331853071795921</c:v>
+                  <c:v>-265.46196380341451</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.5831853071795923</c:v>
+                  <c:v>-262.5971748277604</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.5331853071795924</c:v>
+                  <c:v>-259.73238585210629</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.4831853071795926</c:v>
+                  <c:v>-256.86759687645218</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.4331853071795928</c:v>
+                  <c:v>-254.00280790079808</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.383185307179593</c:v>
+                  <c:v>-251.13801892514397</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.3331853071795932</c:v>
+                  <c:v>-248.27322994948989</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.2831853071795933</c:v>
+                  <c:v>-245.40844097383575</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.2331853071795935</c:v>
+                  <c:v>-242.54365199818164</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4.1831853071795937</c:v>
+                  <c:v>-239.67886302252757</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4.1331853071795939</c:v>
+                  <c:v>-236.81407404687346</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.083185307179594</c:v>
+                  <c:v>-233.94928507121932</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-4.0331853071795942</c:v>
+                  <c:v>-231.08449609556521</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.9831853071795944</c:v>
+                  <c:v>-228.21970711991113</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.9331853071795946</c:v>
+                  <c:v>-225.35491814425703</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.8831853071795948</c:v>
+                  <c:v>-222.49012916860289</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.8331853071795949</c:v>
+                  <c:v>-219.62534019294881</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.7831853071795951</c:v>
+                  <c:v>-216.7605512172947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.7331853071795953</c:v>
+                  <c:v>-213.8957622416406</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.6831853071795955</c:v>
+                  <c:v>-211.03097326598649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.6331853071795956</c:v>
+                  <c:v>-208.16618429033238</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.5831853071795958</c:v>
+                  <c:v>-205.30139531467827</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.533185307179596</c:v>
+                  <c:v>-202.43660633902417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.4831853071795962</c:v>
+                  <c:v>-199.57181736337009</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.4331853071795964</c:v>
+                  <c:v>-196.70702838771598</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.3831853071795965</c:v>
+                  <c:v>-193.84223941206184</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.3331853071795967</c:v>
+                  <c:v>-190.97745043640774</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.2831853071795969</c:v>
+                  <c:v>-188.11266146075366</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.2331853071795971</c:v>
+                  <c:v>-185.24787248509955</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.1831853071795972</c:v>
+                  <c:v>-182.38308350944541</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.1331853071795974</c:v>
+                  <c:v>-179.51829453379131</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.0831853071795976</c:v>
+                  <c:v>-176.65350555813723</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.0331853071795978</c:v>
+                  <c:v>-173.78871658248312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.983185307179598</c:v>
+                  <c:v>-170.92392760682898</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.9331853071795981</c:v>
+                  <c:v>-168.0591386311749</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.8831853071795983</c:v>
+                  <c:v>-165.1943496555208</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.8331853071795985</c:v>
+                  <c:v>-162.32956067986669</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.7831853071795987</c:v>
+                  <c:v>-159.46477170421258</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.7331853071795988</c:v>
+                  <c:v>-156.59998272855847</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.683185307179599</c:v>
+                  <c:v>-153.73519375290437</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.6331853071795992</c:v>
+                  <c:v>-150.87040477725026</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.5831853071795994</c:v>
+                  <c:v>-148.00561580159615</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.5331853071795996</c:v>
+                  <c:v>-145.14082682594207</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.4831853071795997</c:v>
+                  <c:v>-142.27603785028793</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.4331853071795999</c:v>
+                  <c:v>-139.41124887463386</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.3831853071796001</c:v>
+                  <c:v>-136.54645989897972</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.3331853071796003</c:v>
+                  <c:v>-133.68167092332564</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.2831853071796004</c:v>
+                  <c:v>-130.8168819476715</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.2331853071796006</c:v>
+                  <c:v>-127.95209297201741</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.1831853071796008</c:v>
+                  <c:v>-125.08730399636332</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.133185307179601</c:v>
+                  <c:v>-122.2225150207092</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.0831853071796012</c:v>
+                  <c:v>-119.3577260450551</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.0331853071796013</c:v>
+                  <c:v>-116.49293706940098</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.9831853071796013</c:v>
+                  <c:v>-113.62814809374687</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.9331853071796012</c:v>
+                  <c:v>-110.76335911809275</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.8831853071796012</c:v>
+                  <c:v>-107.89857014243864</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.8331853071796012</c:v>
+                  <c:v>-105.03378116678452</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.7831853071796011</c:v>
+                  <c:v>-102.1689921911304</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.7331853071796011</c:v>
+                  <c:v>-99.304203215476278</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.683185307179601</c:v>
+                  <c:v>-96.439414239822156</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.633185307179601</c:v>
+                  <c:v>-93.574625264168034</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.5831853071796009</c:v>
+                  <c:v>-90.709836288513927</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.5331853071796009</c:v>
+                  <c:v>-87.845047312859805</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.4831853071796008</c:v>
+                  <c:v>-84.980258337205697</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.4331853071796008</c:v>
+                  <c:v>-82.115469361551575</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.3831853071796008</c:v>
+                  <c:v>-79.250680385897454</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.3331853071796007</c:v>
+                  <c:v>-76.385891410243332</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.2831853071796007</c:v>
+                  <c:v>-73.52110243458921</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.2331853071796006</c:v>
+                  <c:v>-70.656313458935088</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.1831853071796006</c:v>
+                  <c:v>-67.79152448328098</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.1331853071796005</c:v>
+                  <c:v>-64.926735507626859</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.0831853071796005</c:v>
+                  <c:v>-62.061946531972737</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.0331853071796004</c:v>
+                  <c:v>-59.197157556318615</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.9831853071796004</c:v>
+                  <c:v>-56.3323685806645</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.93318530717960035</c:v>
+                  <c:v>-53.467579605010378</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.88318530717960031</c:v>
+                  <c:v>-50.602790629356264</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.83318530717960027</c:v>
+                  <c:v>-47.738001653702142</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.78318530717960022</c:v>
+                  <c:v>-44.873212678048027</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.73318530717960018</c:v>
+                  <c:v>-42.008423702393905</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.68318530717960013</c:v>
+                  <c:v>-39.143634726739784</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.63318530717960009</c:v>
+                  <c:v>-36.278845751085669</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.58318530717960004</c:v>
+                  <c:v>-33.414056775431547</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.5331853071796</c:v>
+                  <c:v>-30.549267799777429</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.48318530717960001</c:v>
+                  <c:v>-27.684478824123318</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.43318530717960002</c:v>
+                  <c:v>-24.819689848469203</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.38318530717960003</c:v>
+                  <c:v>-21.954900872815085</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.33318530717960004</c:v>
+                  <c:v>-19.09011189716097</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.28318530717960005</c:v>
+                  <c:v>-16.225322921506852</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.23318530717960007</c:v>
+                  <c:v>-13.360533945852737</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.18318530717960008</c:v>
+                  <c:v>-10.495744970198622</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.13318530717960009</c:v>
+                  <c:v>-7.6309559945445065</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-8.3185307179600085E-2</c:v>
+                  <c:v>-4.7661670188903908</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-3.3185307179600082E-2</c:v>
+                  <c:v>-1.9013780432362741</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.6814692820399921E-2</c:v>
+                  <c:v>0.96341093241784215</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6.6814692820399924E-2</c:v>
+                  <c:v>3.8281999080719586</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.11681469282039993</c:v>
+                  <c:v>6.6929888837260751</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.16681469282039993</c:v>
+                  <c:v>9.5577778593801916</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.21681469282039995</c:v>
+                  <c:v>12.422566835034308</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.26681469282039993</c:v>
+                  <c:v>15.287355810688425</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.31681469282039992</c:v>
+                  <c:v>18.152144786342539</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.36681469282039991</c:v>
+                  <c:v>21.016933761996654</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.4168146928203999</c:v>
+                  <c:v>23.881722737650769</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.46681469282039989</c:v>
+                  <c:v>26.746511713304884</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.51681469282039993</c:v>
+                  <c:v>29.611300688959005</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.56681469282039998</c:v>
+                  <c:v>32.47608966461312</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.61681469282040002</c:v>
+                  <c:v>35.340878640267242</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.66681469282040007</c:v>
+                  <c:v>38.205667615921357</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.71681469282040011</c:v>
+                  <c:v>41.070456591575486</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.76681469282040016</c:v>
+                  <c:v>43.9352455672296</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.8168146928204002</c:v>
+                  <c:v>46.800034542883715</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.86681469282040025</c:v>
+                  <c:v>49.66482351853783</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.91681469282040029</c:v>
+                  <c:v>52.529612494191959</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.96681469282040033</c:v>
+                  <c:v>55.394401469846073</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.0168146928204003</c:v>
+                  <c:v>58.259190445500188</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.0668146928204003</c:v>
+                  <c:v>61.123979421154303</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.1168146928204004</c:v>
+                  <c:v>63.988768396808425</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.1668146928204004</c:v>
+                  <c:v>66.853557372462532</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.2168146928204004</c:v>
+                  <c:v>69.718346348116668</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.2668146928204005</c:v>
+                  <c:v>72.583135323770776</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3168146928204005</c:v>
+                  <c:v>75.447924299424898</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.3668146928204006</c:v>
+                  <c:v>78.312713275079005</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.4168146928204006</c:v>
+                  <c:v>81.177502250733141</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.4668146928204007</c:v>
+                  <c:v>84.042291226387249</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.5168146928204007</c:v>
+                  <c:v>86.907080202041371</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.5668146928204008</c:v>
+                  <c:v>89.771869177695478</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.6168146928204008</c:v>
+                  <c:v>92.6366581533496</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.6668146928204008</c:v>
+                  <c:v>95.501447129003736</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.7168146928204009</c:v>
+                  <c:v>98.366236104657858</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.7668146928204009</c:v>
+                  <c:v>101.23102508031197</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.816814692820401</c:v>
+                  <c:v>104.09581405596609</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.866814692820401</c:v>
+                  <c:v>106.9606030316202</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.9168146928204011</c:v>
+                  <c:v>109.82539200727432</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.9668146928204011</c:v>
+                  <c:v>112.69018098292844</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.0168146928204012</c:v>
+                  <c:v>115.55496995858256</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.066814692820401</c:v>
+                  <c:v>118.41975893423667</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.1168146928204008</c:v>
+                  <c:v>121.28454790989076</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.1668146928204006</c:v>
+                  <c:v>124.14933688554488</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.2168146928204004</c:v>
+                  <c:v>127.01412586119898</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.2668146928204003</c:v>
+                  <c:v>129.87891483685308</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.3168146928204001</c:v>
+                  <c:v>132.74370381250719</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.3668146928203999</c:v>
+                  <c:v>135.6084927881613</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.4168146928203997</c:v>
+                  <c:v>138.47328176381541</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.4668146928203996</c:v>
+                  <c:v>141.33807073946952</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5168146928203994</c:v>
+                  <c:v>144.20285971512362</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.5668146928203992</c:v>
+                  <c:v>147.06764869077773</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.616814692820399</c:v>
+                  <c:v>149.93243766643184</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.6668146928203988</c:v>
+                  <c:v>152.79722664208595</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.7168146928203987</c:v>
+                  <c:v>155.66201561774005</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.7668146928203985</c:v>
+                  <c:v>158.52680459339416</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.8168146928203983</c:v>
+                  <c:v>161.39159356904827</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.8668146928203981</c:v>
+                  <c:v>164.25638254470238</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.916814692820398</c:v>
+                  <c:v>167.12117152035646</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.9668146928203978</c:v>
+                  <c:v>169.98596049601056</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.0168146928203976</c:v>
+                  <c:v>172.8507494716647</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.0668146928203974</c:v>
+                  <c:v>175.71553844731878</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.1168146928203972</c:v>
+                  <c:v>178.58032742297289</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.1668146928203971</c:v>
+                  <c:v>181.44511639862699</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.2168146928203969</c:v>
+                  <c:v>184.30990537428113</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.2668146928203967</c:v>
+                  <c:v>187.17469434993521</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.3168146928203965</c:v>
+                  <c:v>190.03948332558932</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.3668146928203964</c:v>
+                  <c:v>192.90427230124342</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.4168146928203962</c:v>
+                  <c:v>195.7690612768975</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.466814692820396</c:v>
+                  <c:v>198.63385025255164</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.5168146928203958</c:v>
+                  <c:v>201.49863922820575</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.5668146928203956</c:v>
+                  <c:v>204.36342820385985</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.6168146928203955</c:v>
+                  <c:v>207.22821717951393</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.6668146928203953</c:v>
+                  <c:v>210.09300615516807</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.7168146928203951</c:v>
+                  <c:v>212.95779513082218</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.7668146928203949</c:v>
+                  <c:v>215.82258410647626</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.8168146928203948</c:v>
+                  <c:v>218.68737308213036</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.8668146928203946</c:v>
+                  <c:v>221.55216205778447</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.9168146928203944</c:v>
+                  <c:v>224.41695103343861</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.9668146928203942</c:v>
+                  <c:v>227.28174000909269</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4.0168146928203941</c:v>
+                  <c:v>230.14652898474679</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4.0668146928203939</c:v>
+                  <c:v>233.0113179604009</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.1168146928203937</c:v>
+                  <c:v>235.87610693605498</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.1668146928203935</c:v>
+                  <c:v>238.74089591170912</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4.2168146928203933</c:v>
+                  <c:v>241.60568488736322</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.2668146928203932</c:v>
+                  <c:v>244.47047386301733</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.316814692820393</c:v>
+                  <c:v>247.33526283867141</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.3668146928203928</c:v>
+                  <c:v>250.20005181432555</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.4168146928203926</c:v>
+                  <c:v>253.06484078997966</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.4668146928203925</c:v>
+                  <c:v>255.92962976563373</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>4.5168146928203923</c:v>
+                  <c:v>258.79441874128787</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4.5668146928203921</c:v>
+                  <c:v>261.65920771694198</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.6168146928203919</c:v>
+                  <c:v>264.52399669259609</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4.6668146928203917</c:v>
+                  <c:v>267.38878566825014</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4.7168146928203916</c:v>
+                  <c:v>270.2535746439043</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>4.7668146928203914</c:v>
+                  <c:v>273.11836361955841</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>4.8168146928203912</c:v>
+                  <c:v>275.98315259521252</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>4.866814692820391</c:v>
+                  <c:v>278.84794157086657</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>4.9168146928203909</c:v>
+                  <c:v>281.71273054652073</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4.9668146928203907</c:v>
+                  <c:v>284.57751952217484</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>5.0168146928203905</c:v>
+                  <c:v>287.44230849782889</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>5.0668146928203903</c:v>
+                  <c:v>290.307097473483</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>5.1168146928203901</c:v>
+                  <c:v>293.17188644913716</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>5.16681469282039</c:v>
+                  <c:v>296.03667542479127</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>5.2168146928203898</c:v>
+                  <c:v>298.90146440044532</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>5.2668146928203896</c:v>
+                  <c:v>301.76625337609943</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>5.3168146928203894</c:v>
+                  <c:v>304.63104235175354</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>5.3668146928203893</c:v>
+                  <c:v>307.49583132740764</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>5.4168146928203891</c:v>
+                  <c:v>310.36062030306175</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>5.4668146928203889</c:v>
+                  <c:v>313.22540927871586</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>5.5168146928203887</c:v>
+                  <c:v>316.09019825436997</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>5.5668146928203885</c:v>
+                  <c:v>318.95498723002407</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>5.6168146928203884</c:v>
+                  <c:v>321.81977620567818</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>5.6668146928203882</c:v>
+                  <c:v>324.68456518133229</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>5.716814692820388</c:v>
+                  <c:v>327.5493541569864</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>5.7668146928203878</c:v>
+                  <c:v>330.41414313264056</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5.8168146928203877</c:v>
+                  <c:v>333.27893210829455</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>5.8668146928203875</c:v>
+                  <c:v>336.14372108394872</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>5.9168146928203873</c:v>
+                  <c:v>339.00851005960283</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>5.9668146928203871</c:v>
+                  <c:v>341.87329903525693</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6.0168146928203869</c:v>
+                  <c:v>344.73808801091104</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6.0668146928203868</c:v>
+                  <c:v>347.60287698656515</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>6.1168146928203866</c:v>
+                  <c:v>350.46766596221926</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>6.1668146928203864</c:v>
+                  <c:v>353.33245493787331</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>6.2168146928203862</c:v>
+                  <c:v>356.19724391352742</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>6.2668146928203861</c:v>
+                  <c:v>359.06203288918158</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>6.2831853071795862</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>EE_Orientation!$B$3:$B$302</c:f>
+              <c:f>EE_Orientation!$C$3:$C$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
@@ -4034,7 +4043,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Error (rad)</a:t>
+                  <a:t> Error (deg)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4398,7 +4407,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2DV_Control'!$A$3:$A$303</c:f>
+              <c:f>Control!$A$3:$A$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="301"/>
@@ -4710,7 +4719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2DV_Control'!$B$3:$B$303</c:f>
+              <c:f>Control!$B$3:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="301"/>
@@ -5080,8 +5089,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Delta V (m/s)</a:t>
+                  <a:t>Joint Torque</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7039,13 +7053,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7082,16 +7096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7421,15 +7435,15 @@
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>-2</v>
       </c>
@@ -7451,7 +7465,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7460,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7469,7 +7483,7 @@
         <v>-1.9900332501663828E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -7478,7 +7492,7 @@
         <v>-3.9602653386489398E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -7487,7 +7501,7 @@
         <v>-5.910893290298376E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -7496,7 +7510,7 @@
         <v>-7.8421121695353493E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -7505,7 +7519,7 @@
         <v>-9.7541150998571927E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.03</v>
       </c>
@@ -7514,7 +7528,7 @@
         <v>-1.1647093283150244E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -7523,7 +7537,7 @@
         <v>-1.3521236018810348E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.04</v>
       </c>
@@ -7532,7 +7546,7 @@
         <v>-1.5376730722672857E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -7541,7 +7555,7 @@
         <v>-1.7213762945754371E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.05</v>
       </c>
@@ -7550,7 +7564,7 @@
         <v>-1.9032516392808105E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.5E-2</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>-2.0833172940694367E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.06</v>
       </c>
@@ -7568,7 +7582,7 @@
         <v>-2.261591265656851E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -7577,7 +7591,7 @@
         <v>-2.4380913815887743E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7586,7 +7600,7 @@
         <v>-2.6128352920238816E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7595,7 +7609,7 @@
         <v>-2.7858404714988447E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.08</v>
       </c>
@@ -7604,7 +7618,7 @@
         <v>-2.9571242206757747E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -7613,7 +7627,7 @@
         <v>-3.1267036680723247E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.09</v>
       </c>
@@ -7622,7 +7636,7 @@
         <v>-3.2945957717745618E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -7631,7 +7645,7 @@
         <v>-3.4608173211327538E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -7640,7 +7654,7 @@
         <v>-3.6253849384403625E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.105</v>
       </c>
@@ -7649,7 +7663,7 @@
         <v>-3.7883150805962593E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.11</v>
       </c>
@@ -7658,7 +7672,7 @@
         <v>-3.9496240407504296E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.115</v>
       </c>
@@ -7667,7 +7681,7 @@
         <v>-4.1093279499333189E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.12</v>
       </c>
@@ -7676,7 +7690,7 @@
         <v>-4.2674427786689312E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.125</v>
       </c>
@@ -7685,7 +7699,7 @@
         <v>-4.423984338571902E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.13</v>
       </c>
@@ -7694,7 +7708,7 @@
         <v>-4.5789682839286749E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.13500000000000001</v>
       </c>
@@ -7703,7 +7717,7 @@
         <v>-4.7324101132629366E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.14000000000000001</v>
       </c>
@@ -7712,7 +7726,7 @@
         <v>-4.8843251708854899E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.14499999999999999</v>
       </c>
@@ -7721,7 +7735,7 @@
         <v>-5.0347286484286949E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.15</v>
       </c>
@@ -7730,7 +7744,7 @@
         <v>-5.1836355863656425E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.155</v>
       </c>
@@ -7739,7 +7753,7 @@
         <v>-5.3310608755142153E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.16</v>
       </c>
@@ -7748,7 +7762,7 @@
         <v>-5.477019258526181E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.16500000000000001</v>
       </c>
@@ -7757,7 +7771,7 @@
         <v>-5.6215253313614769E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.17</v>
       </c>
@@ -7766,7 +7780,7 @@
         <v>-5.7645935447478078E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.17499999999999999</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>-5.9062382056257311E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.18</v>
       </c>
@@ -7784,7 +7798,7 @@
         <v>-6.0464734785793794E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.185</v>
       </c>
@@ -7793,7 +7807,7 @@
         <v>-6.1853133872529064E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.19</v>
       </c>
@@ -7802,7 +7816,7 @@
         <v>-6.3227718157528832E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.19500000000000001</v>
       </c>
@@ -7811,7 +7825,7 @@
         <v>-6.4588625100367066E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.2</v>
       </c>
@@ -7820,7 +7834,7 @@
         <v>-6.5935990792872143E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.20499999999999999</v>
       </c>
@@ -7829,7 +7843,7 @@
         <v>-6.7269949972736127E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.21</v>
       </c>
@@ -7838,7 +7852,7 @@
         <v>-6.8590636036988655E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.215</v>
       </c>
@@ -7847,7 +7861,7 @@
         <v>-6.9898181055336704E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.22</v>
       </c>
@@ -7856,7 +7870,7 @@
         <v>-7.1192715783371715E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.22500000000000001</v>
       </c>
@@ -7865,7 +7879,7 @@
         <v>-7.2474369675645332E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.23</v>
       </c>
@@ -7874,7 +7888,7 @@
         <v>-7.3743270898614811E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.23499999999999999</v>
       </c>
@@ -7883,7 +7897,7 @@
         <v>-7.4999546343459851E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.24</v>
       </c>
@@ -7892,7 +7906,7 @@
         <v>-7.6243321638771837E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.245</v>
       </c>
@@ -7901,7 +7915,7 @@
         <v>-7.7474721163116773E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.25</v>
       </c>
@@ -7910,7 +7924,7 @@
         <v>-7.8693868057473325E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.255</v>
       </c>
@@ -7919,7 +7933,7 @@
         <v>-7.9900884237546817E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.26</v>
       </c>
@@ -7928,7 +7942,7 @@
         <v>-8.1095890405961119E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.26500000000000001</v>
       </c>
@@ -7937,7 +7951,7 @@
         <v>-8.2279006064328968E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.27</v>
       </c>
@@ -7946,7 +7960,7 @@
         <v>-8.345034952520208E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.27500000000000002</v>
       </c>
@@ -7955,7 +7969,7 @@
         <v>-8.4610037923902679E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.28000000000000003</v>
       </c>
@@ -7964,7 +7978,7 @@
         <v>-8.5758187230237024E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.28499999999999998</v>
       </c>
@@ -7973,7 +7987,7 @@
         <v>-8.6894912260092588E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.28999999999999998</v>
       </c>
@@ -7982,7 +7996,7 @@
         <v>-8.802032668691959E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.29499999999999998</v>
       </c>
@@ -7991,7 +8005,7 @@
         <v>-8.9134543053098585E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.3</v>
       </c>
@@ -8000,7 +8014,7 @@
         <v>-9.0237672781194721E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.30499999999999999</v>
       </c>
@@ -8009,7 +8023,7 @@
         <v>-9.1329826185100032E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.31</v>
       </c>
@@ -8018,7 +8032,7 @@
         <v>-9.2411112481065108E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.315</v>
       </c>
@@ -8027,7 +8041,7 @@
         <v>-9.3481639798620574E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.32</v>
       </c>
@@ -8036,7 +8050,7 @@
         <v>-9.4541515191390296E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.32500000000000001</v>
       </c>
@@ -8045,7 +8059,7 @@
         <v>-9.559084464779679E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.33</v>
       </c>
@@ -8054,7 +8068,7 @@
         <v>-9.6629733101660162E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.33500000000000002</v>
       </c>
@@ -8063,7 +8077,7 @@
         <v>-9.7658284442691517E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.34</v>
       </c>
@@ -8072,7 +8086,7 @@
         <v>-9.8676601526882096E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.34499999999999997</v>
       </c>
@@ -8081,7 +8095,7 @@
         <v>-9.9684786186788887E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.35</v>
       </c>
@@ -8090,7 +8104,7 @@
         <v>-1.0068293924171809E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.35499999999999998</v>
       </c>
@@ -8099,7 +8113,7 @@
         <v>-1.0167116050780698E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.36</v>
       </c>
@@ -8108,7 +8122,7 @@
         <v>-1.0264954880800566E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.36499999999999999</v>
       </c>
@@ -8117,7 +8131,7 @@
         <v>-1.0361820198195952E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.37</v>
       </c>
@@ -8126,7 +8140,7 @@
         <v>-1.0457721689579312E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.375</v>
       </c>
@@ -8135,7 +8149,7 @@
         <v>-1.0552668945179706E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.38</v>
       </c>
@@ -8144,7 +8158,7 @@
         <v>-1.0646671459801816E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.38500000000000001</v>
       </c>
@@ -8153,7 +8167,7 @@
         <v>-1.0739738633775439E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.39</v>
       </c>
@@ -8162,7 +8176,7 @@
         <v>-1.083187977389553E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.39500000000000002</v>
       </c>
@@ -8171,7 +8185,7 @@
         <v>-1.0923104094352884E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.4</v>
       </c>
@@ -8180,7 +8194,7 @@
         <v>-1.1013420717655568E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.40500000000000003</v>
       </c>
@@ -8189,7 +8203,7 @@
         <v>-1.1102838675541179E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.41</v>
       </c>
@@ -8198,7 +8212,7 @@
         <v>-1.1191366909880015E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.41499999999999998</v>
       </c>
@@ -8207,7 +8221,7 @@
         <v>-1.1279014273569287E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.42</v>
       </c>
@@ -8216,7 +8230,7 @@
         <v>-1.1365789531418405E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.42499999999999999</v>
       </c>
@@ -8225,7 +8239,7 @@
         <v>-1.1451701361025466E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.43</v>
       </c>
@@ -8234,7 +8248,7 @@
         <v>-1.1536758353645024E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.435</v>
       </c>
@@ -8243,7 +8257,7 @@
         <v>-1.1620969015047221E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.44</v>
       </c>
@@ -8252,7 +8266,7 @@
         <v>-1.1704341766368373E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.44500000000000001</v>
       </c>
@@ -8261,7 +8275,7 @@
         <v>-1.1786884944953091E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.45</v>
       </c>
@@ -8270,7 +8284,7 @@
         <v>-1.1868606805188017E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.45500000000000002</v>
       </c>
@@ -8279,7 +8293,7 @@
         <v>-1.1949515519327282E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.46</v>
       </c>
@@ -8288,7 +8302,7 @@
         <v>-1.2029619178309718E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.46500000000000002</v>
       </c>
@@ -8297,7 +8311,7 @@
         <v>-1.2108925792567978E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.47</v>
       </c>
@@ -8306,7 +8320,7 @@
         <v>-1.2187443292829577E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.47499999999999998</v>
       </c>
@@ -8315,7 +8329,7 @@
         <v>-1.2265179530909977E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.48</v>
       </c>
@@ -8324,7 +8338,7 @@
         <v>-1.2342142280497759E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.48499999999999999</v>
       </c>
@@ -8333,7 +8347,7 @@
         <v>-1.2418339237932024E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.49</v>
       </c>
@@ -8342,7 +8356,7 @@
         <v>-1.2493778022972008E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.495</v>
       </c>
@@ -8351,7 +8365,7 @@
         <v>-1.2568466179559087E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.5</v>
       </c>
@@ -8360,7 +8374,7 @@
         <v>-1.2642411176571153E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.505</v>
       </c>
@@ -8369,7 +8383,7 @@
         <v>-1.2715620408569533E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.51</v>
       </c>
@@ -8378,7 +8392,7 @@
         <v>-1.2788101196538434E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.51500000000000001</v>
       </c>
@@ -8387,7 +8401,7 @@
         <v>-1.2859860788617053E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.52</v>
       </c>
@@ -8396,7 +8410,7 @@
         <v>-1.2930906360824397E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.52500000000000002</v>
       </c>
@@ -8405,7 +8419,7 @@
         <v>-1.3001245017776893E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.53</v>
       </c>
@@ -8414,7 +8428,7 @@
         <v>-1.3070883793398852E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.53500000000000003</v>
       </c>
@@ -8423,7 +8437,7 @@
         <v>-1.3139829651625867E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.54</v>
       </c>
@@ -8432,7 +8446,7 @@
         <v>-1.3208089487101218E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.54500000000000004</v>
       </c>
@@ -8441,7 +8455,7 @@
         <v>-1.3275670125865334E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.55000000000000004</v>
       </c>
@@ -8450,7 +8464,7 @@
         <v>-1.3342578326038409E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.55500000000000005</v>
       </c>
@@ -8459,7 +8473,7 @@
         <v>-1.3408820778496219E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.56000000000000005</v>
       </c>
@@ -8468,7 +8482,7 @@
         <v>-1.3474404107539211E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.56499999999999995</v>
       </c>
@@ -8477,7 +8491,7 @@
         <v>-1.3539334871554941E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.56999999999999995</v>
       </c>
@@ -8486,7 +8500,7 @@
         <v>-1.3603619563673921E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.57499999999999996</v>
       </c>
@@ -8495,7 +8509,7 @@
         <v>-1.3667264612418935E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.57999999999999996</v>
       </c>
@@ -8504,7 +8518,7 @@
         <v>-1.3730276382347893E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.58499999999999996</v>
       </c>
@@ -8513,7 +8527,7 @@
         <v>-1.37926611746903E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.59</v>
       </c>
@@ -8522,7 +8536,7 @@
         <v>-1.3854425227977375E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.59499999999999997</v>
       </c>
@@ -8531,7 +8545,7 @@
         <v>-1.3915574718665918E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.6</v>
       </c>
@@ -8540,7 +8554,7 @@
         <v>-1.3976115761755958E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.60499999999999998</v>
       </c>
@@ -8549,7 +8563,7 @@
         <v>-1.4036054411402252E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.61</v>
       </c>
@@ -8558,7 +8572,7 @@
         <v>-1.4095396661519717E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.61499999999999999</v>
       </c>
@@ -8567,7 +8581,7 @@
         <v>-1.4154148446382811E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.62</v>
       </c>
@@ -8576,7 +8590,7 @@
         <v>-1.4212315641218987E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.625</v>
       </c>
@@ -8585,7 +8599,7 @@
         <v>-1.4269904062796199E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.63</v>
       </c>
@@ -8594,7 +8608,7 @@
         <v>-1.4326919470004591E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.63500000000000001</v>
       </c>
@@ -8603,7 +8617,7 @@
         <v>-1.4383367564432405E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.64</v>
       </c>
@@ -8612,7 +8626,7 @@
         <v>-1.4439253990936117E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.64500000000000002</v>
       </c>
@@ -8621,7 +8635,7 @@
         <v>-1.4494584338204953E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.65</v>
       </c>
@@ -8630,7 +8644,7 @@
         <v>-1.4549364139319749E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.65500000000000003</v>
       </c>
@@ -8639,7 +8653,7 @@
         <v>-1.4603598872306264E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.66</v>
       </c>
@@ -8648,7 +8662,7 @@
         <v>-1.4657293960682993E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.66500000000000004</v>
       </c>
@@ -8657,7 +8671,7 @@
         <v>-1.4710454774003522E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0.67</v>
       </c>
@@ -8666,7 +8680,7 @@
         <v>-1.4763086628393481E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.67500000000000004</v>
       </c>
@@ -8675,7 +8689,7 @@
         <v>-1.4815194787082171E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0.68</v>
       </c>
@@ -8684,7 +8698,7 @@
         <v>-1.4866784460928883E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.68500000000000005</v>
       </c>
@@ -8693,7 +8707,7 @@
         <v>-1.4917860808943995E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.69</v>
       </c>
@@ -8702,7 +8716,7 @@
         <v>-1.496842893880487E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.69499999999999995</v>
       </c>
@@ -8711,7 +8725,7 @@
         <v>-1.5018493907366636E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.7</v>
       </c>
@@ -8720,7 +8734,7 @@
         <v>-1.506806072116787E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.70499999999999996</v>
       </c>
@@ -8729,7 +8743,7 @@
         <v>-1.5117134336931258E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.71</v>
       </c>
@@ -8738,7 +8752,7 @@
         <v>-1.5165719662059271E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.71499999999999997</v>
       </c>
@@ -8747,7 +8761,7 @@
         <v>-1.521382155512491E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.72</v>
       </c>
@@ -8756,7 +8770,7 @@
         <v>-1.5261444826357565E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.72499999999999998</v>
       </c>
@@ -8765,7 +8779,7 @@
         <v>-1.5308594238124047E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.73</v>
       </c>
@@ -8774,7 +8788,7 @@
         <v>-1.5355274505404824E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.73499999999999999</v>
       </c>
@@ -8783,7 +8797,7 @@
         <v>-1.5401490296265523E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.74</v>
       </c>
@@ -8792,7 +8806,7 @@
         <v>-1.5447246232323745E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.745</v>
       </c>
@@ -8801,7 +8815,7 @@
         <v>-1.5492546889211225E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0.75</v>
       </c>
@@ -8810,7 +8824,7 @@
         <v>-1.5537396797031405E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0.755</v>
       </c>
@@ -8819,7 +8833,7 @@
         <v>-1.5581800440812437E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.76</v>
       </c>
@@ -8828,7 +8842,7 @@
         <v>-1.5625762260955706E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0.76500000000000001</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>-1.5669286653679858E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0.77</v>
       </c>
@@ -8846,7 +8860,7 @@
         <v>-1.5712377971460439E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0.77500000000000002</v>
       </c>
@@ -8855,7 +8869,7 @@
         <v>-1.5755040523465141E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0.78</v>
       </c>
@@ -8864,7 +8878,7 @@
         <v>-1.5797278575984706E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0.78500000000000003</v>
       </c>
@@ -8873,7 +8887,7 @@
         <v>-1.5839096352859593E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.79</v>
       </c>
@@ -8882,7 +8896,7 @@
         <v>-1.588049803590233E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0.79500000000000004</v>
       </c>
@@ -8891,7 +8905,7 @@
         <v>-1.5921487765315732E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0.8</v>
       </c>
@@ -8900,7 +8914,7 @@
         <v>-1.5962069640106893E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0.80500000000000005</v>
       </c>
@@ -8909,7 +8923,7 @@
         <v>-1.600224771849711E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0.81</v>
       </c>
@@ -8918,7 +8932,7 @@
         <v>-1.6042026018327708E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0.81499999999999995</v>
       </c>
@@ -8927,7 +8941,7 @@
         <v>-1.6081408517461815E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0.82</v>
       </c>
@@ -8936,7 +8950,7 @@
         <v>-1.6120399154182161E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0.82499999999999996</v>
       </c>
@@ -8945,7 +8959,7 @@
         <v>-1.6159001827584916E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.83</v>
       </c>
@@ -8954,7 +8968,7 @@
         <v>-1.619722039796959E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0.83499999999999996</v>
       </c>
@@ -8963,7 +8977,7 @@
         <v>-1.6235058687225065E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0.84</v>
       </c>
@@ -8972,7 +8986,7 @@
         <v>-1.6272520479211801E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.84499999999999997</v>
       </c>
@@ -8981,7 +8995,7 @@
         <v>-1.6309609520140215E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0.85</v>
       </c>
@@ -8990,7 +9004,7 @@
         <v>-1.6346329518945307E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0.85499999999999998</v>
       </c>
@@ -8999,7 +9013,7 @@
         <v>-1.6382684147657558E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.86</v>
       </c>
@@ -9008,7 +9022,7 @@
         <v>-1.6418677041770136E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0.86499999999999999</v>
       </c>
@@ -9017,7 +9031,7 @@
         <v>-1.6454311800602445E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0.87</v>
       </c>
@@ -9026,7 +9040,7 @@
         <v>-1.6489591987660063E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.875</v>
       </c>
@@ -9035,7 +9049,7 @@
         <v>-1.6524521130991097E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.88</v>
       </c>
@@ -9044,7 +9058,7 @@
         <v>-1.6559102723538988E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.88500000000000001</v>
       </c>
@@ -9053,7 +9067,7 @@
         <v>-1.6593340223491813E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0.89</v>
       </c>
@@ -9062,7 +9076,7 @@
         <v>-1.662723705462809E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0.89500000000000002</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>-1.6660796606659187E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0.9</v>
       </c>
@@ -9080,7 +9094,7 @@
         <v>-1.6694022235568269E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0.90500000000000003</v>
       </c>
@@ -9089,7 +9103,7 @@
         <v>-1.6726917263945918E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0.91</v>
       </c>
@@ -9098,7 +9112,7 @@
         <v>-1.6759484981322386E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0.91500000000000004</v>
       </c>
@@ -9107,7 +9121,7 @@
         <v>-1.6791728644496545E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.92</v>
       </c>
@@ -9116,7 +9130,7 @@
         <v>-1.6823651477861586E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0.92500000000000004</v>
       </c>
@@ -9125,7 +9139,7 @@
         <v>-1.6855256673727448E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0.93</v>
       </c>
@@ -9134,7 +9148,7 @@
         <v>-1.6886547392640054E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0.93500000000000005</v>
       </c>
@@ -9143,7 +9157,7 @@
         <v>-1.6917526763697371E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0.94</v>
       </c>
@@ -9152,7 +9166,7 @@
         <v>-1.6948197884862324E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0.94499999999999995</v>
       </c>
@@ -9161,7 +9175,7 @@
         <v>-1.6978563823272584E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0.95</v>
       </c>
@@ -9170,7 +9184,7 @@
         <v>-1.7008627615547299E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0.95499999999999996</v>
       </c>
@@ -9179,7 +9193,7 @@
         <v>-1.703839226809075E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0.96</v>
       </c>
@@ -9188,7 +9202,7 @@
         <v>-1.7067860757392996E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.96499999999999997</v>
       </c>
@@ -9197,7 +9211,7 @@
         <v>-1.7097036030327525E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0.97</v>
       </c>
@@ -9206,7 +9220,7 @@
         <v>-1.7125921004445942E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0.97499999999999998</v>
       </c>
@@ -9215,7 +9229,7 @@
         <v>-1.715451856826973E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0.98</v>
       </c>
@@ -9224,7 +9238,7 @@
         <v>-1.71828315815791E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0.98499999999999999</v>
       </c>
@@ -9233,7 +9247,7 @@
         <v>-1.7210862875698982E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0.99</v>
       </c>
@@ -9242,7 +9256,7 @@
         <v>-1.7238615253782143E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0.995</v>
       </c>
@@ -9251,7 +9265,7 @@
         <v>-1.7266091491089524E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -9260,7 +9274,7 @@
         <v>-1.7293294335267745E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.0049999999999999</v>
       </c>
@@ -9269,7 +9283,7 @@
         <v>-1.73202265066239E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1.01</v>
       </c>
@@ -9278,7 +9292,7 @@
         <v>-1.7346890698397566E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1.0149999999999999</v>
       </c>
@@ -9287,7 +9301,7 @@
         <v>-1.7373289577030139E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1.02</v>
       </c>
@@ -9296,7 +9310,7 @@
         <v>-1.7399425782431484E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1.0249999999999999</v>
       </c>
@@ -9305,7 +9319,7 @@
         <v>-1.7425301928243916E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1.03</v>
       </c>
@@ -9314,7 +9328,7 @@
         <v>-1.7450920602103584E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1.0349999999999999</v>
       </c>
@@ -9323,7 +9337,7 @@
         <v>-1.7476284365899226E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1.04</v>
       </c>
@@ -9332,7 +9346,7 @@
         <v>-1.7501395756028354E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.0449999999999999</v>
       </c>
@@ -9341,7 +9355,7 @@
         <v>-1.7526257283650905E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1.05</v>
       </c>
@@ -9350,7 +9364,7 @@
         <v>-1.7550871434940364E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1.0549999999999999</v>
       </c>
@@ -9359,7 +9373,7 @@
         <v>-1.7575240671332367E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1.06</v>
       </c>
@@ -9368,7 +9382,7 @@
         <v>-1.7599367429770866E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1.0649999999999999</v>
       </c>
@@ -9377,7 +9391,7 @@
         <v>-1.7623254122951806E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1.07</v>
       </c>
@@ -9386,7 +9400,7 @@
         <v>-1.7646903139564418E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1.075</v>
       </c>
@@ -9395,7 +9409,7 @@
         <v>-1.7670316844530062E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1.08</v>
       </c>
@@ -9404,7 +9418,7 @@
         <v>-1.769349757923875E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1.085</v>
       </c>
@@ -9413,7 +9427,7 @@
         <v>-1.771644766178327E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1.0900000000000001</v>
       </c>
@@ -9422,7 +9436,7 @@
         <v>-1.7739169387191004E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1.095</v>
       </c>
@@ -9431,7 +9445,7 @@
         <v>-1.7761665027653424E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1.1000000000000001</v>
       </c>
@@ -9440,7 +9454,7 @@
         <v>-1.7783936832753325E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1.105</v>
       </c>
@@ -9449,7 +9463,7 @@
         <v>-1.7805987029689774E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1.1100000000000001</v>
       </c>
@@ -9458,7 +9472,7 @@
         <v>-1.782781782350084E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1.115</v>
       </c>
@@ -9467,7 +9481,7 @@
         <v>-1.78494313972841E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1.1200000000000001</v>
       </c>
@@ -9476,7 +9490,7 @@
         <v>-1.7870829912414943E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1.125</v>
       </c>
@@ -9485,7 +9499,7 @@
         <v>-1.7892015508762713E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1.1299999999999999</v>
       </c>
@@ -9494,7 +9508,7 @@
         <v>-1.7912990304904699E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1.135</v>
       </c>
@@ -9503,7 +9517,7 @@
         <v>-1.7933756398337997E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1.1399999999999999</v>
       </c>
@@ -9512,7 +9526,7 @@
         <v>-1.7954315865689251E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1.145</v>
       </c>
@@ -9521,7 +9535,7 @@
         <v>-1.7974670762922331E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1.1499999999999999</v>
       </c>
@@ -9530,7 +9544,7 @@
         <v>-1.7994823125543926E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1.155</v>
       </c>
@@ -9539,7 +9553,7 @@
         <v>-1.8014774968807087E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1.1599999999999999</v>
       </c>
@@ -9548,7 +9562,7 @@
         <v>-1.8034528287912771E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1.165</v>
       </c>
@@ -9557,7 +9571,7 @@
         <v>-1.8054085058209345E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1.17</v>
       </c>
@@ -9566,7 +9580,7 @@
         <v>-1.8073447235390141E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1.175</v>
       </c>
@@ -9575,7 +9589,7 @@
         <v>-1.8092616755689007E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1.18</v>
       </c>
@@ -9584,7 +9598,7 @@
         <v>-1.8111595536073954E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1.1850000000000001</v>
       </c>
@@ -9593,7 +9607,7 @@
         <v>-1.8130385474438831E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.19</v>
       </c>
@@ -9602,7 +9616,7 @@
         <v>-1.8148988449793135E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1.1950000000000001</v>
       </c>
@@ -9611,7 +9625,7 @@
         <v>-1.8167406322449904E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1.2</v>
       </c>
@@ -9620,7 +9634,7 @@
         <v>-1.8185640934211749E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1.2050000000000001</v>
       </c>
@@ -9629,7 +9643,7 @@
         <v>-1.8203694108555046E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1.21</v>
       </c>
@@ -9638,7 +9652,7 @@
         <v>-1.8221567650812273E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1.2150000000000001</v>
       </c>
@@ -9647,7 +9661,7 @@
         <v>-1.823926334835255E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1.22</v>
       </c>
@@ -9656,7 +9670,7 @@
         <v>-1.8256782970760374E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1.2250000000000001</v>
       </c>
@@ -9665,7 +9679,7 @@
         <v>-1.8274128270012589E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1.23</v>
       </c>
@@ -9674,7 +9688,7 @@
         <v>-1.8291300980653576E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1.2350000000000001</v>
       </c>
@@ -9683,7 +9697,7 @@
         <v>-1.8308302819968706E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1.24</v>
       </c>
@@ -9692,7 +9706,7 @@
         <v>-1.8325135488156081E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1.2450000000000001</v>
       </c>
@@ -9701,7 +9715,7 @@
         <v>-1.8341800668496548E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1.25</v>
       </c>
@@ -9710,7 +9724,7 @@
         <v>-1.8358300027522024E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1.2549999999999999</v>
       </c>
@@ -9719,7 +9733,7 @@
         <v>-1.8374635215182167E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1.26</v>
       </c>
@@ -9728,7 +9742,7 @@
         <v>-1.8390807865009351E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1.2649999999999999</v>
       </c>
@@ -9737,7 +9751,7 @@
         <v>-1.8406819594282038E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1.27</v>
       </c>
@@ -9746,7 +9760,7 @@
         <v>-1.8422672004186503E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1.2749999999999999</v>
       </c>
@@ -9755,7 +9769,7 @@
         <v>-1.8438366679976937E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1.28</v>
       </c>
@@ -9764,7 +9778,7 @@
         <v>-1.8453905191134004E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1.2849999999999999</v>
       </c>
@@ -9773,7 +9787,7 @@
         <v>-1.8469289091521769E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1.29</v>
       </c>
@@ -9782,7 +9796,7 @@
         <v>-1.8484519919543092E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1.2949999999999999</v>
       </c>
@@ -9791,7 +9805,7 @@
         <v>-1.849959919829346E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1.3</v>
       </c>
@@ -9800,7 +9814,7 @@
         <v>-1.8514528435713322E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1.3049999999999999</v>
       </c>
@@ -9809,7 +9823,7 @@
         <v>-1.8529309124738859E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1.31</v>
       </c>
@@ -9818,7 +9832,7 @@
         <v>-1.8543942743451287E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1.3149999999999999</v>
       </c>
@@ -9827,7 +9841,7 @@
         <v>-1.8558430755224679E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1.32</v>
       </c>
@@ -9836,7 +9850,7 @@
         <v>-1.8572774608872279E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1.325</v>
       </c>
@@ -9845,7 +9859,7 @@
         <v>-1.8586975738791409E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1.33</v>
       </c>
@@ -9854,7 +9868,7 @@
         <v>-1.8601035565106894E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1.335</v>
       </c>
@@ -9863,7 +9877,7 @@
         <v>-1.861495549381308E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1.34</v>
       </c>
@@ -9872,7 +9886,7 @@
         <v>-1.8628736916914444E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1.345</v>
       </c>
@@ -9881,7 +9895,7 @@
         <v>-1.8642381212564771E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1.35</v>
       </c>
@@ -9890,7 +9904,7 @@
         <v>-1.8655889745205004E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1.355</v>
       </c>
@@ -9899,7 +9913,7 @@
         <v>-1.8669263865699663E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1.36</v>
       </c>
@@ -9908,7 +9922,7 @@
         <v>-1.8682504911471942E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1.365</v>
       </c>
@@ -9917,7 +9931,7 @@
         <v>-1.8695614206637449E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1.37</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>-1.8708593062136632E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1.375</v>
       </c>
@@ -9935,7 +9949,7 @@
         <v>-1.8721442775865849E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1.38</v>
       </c>
@@ -9944,7 +9958,7 @@
         <v>-1.8734164632807186E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1.385</v>
       </c>
@@ -9953,7 +9967,7 @@
         <v>-1.8746759905156937E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1.39</v>
       </c>
@@ -9962,7 +9976,7 @@
         <v>-1.8759229852452833E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1.395</v>
       </c>
@@ -9971,7 +9985,7 @@
         <v>-1.8771575721699997E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.4</v>
       </c>
@@ -9980,7 +9994,7 @@
         <v>-1.8783798747495639E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1.405</v>
       </c>
@@ -9989,7 +10003,7 @@
         <v>-1.8795900152152531E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1.41</v>
       </c>
@@ -9998,7 +10012,7 @@
         <v>-1.8807881145821215E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1.415</v>
       </c>
@@ -10007,7 +10021,7 @@
         <v>-1.8819742926611045E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.42</v>
       </c>
@@ -10016,7 +10030,7 @@
         <v>-1.8831486680709983E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.425</v>
       </c>
@@ -10025,7 +10039,7 @@
         <v>-1.8843113582503231E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1.43</v>
       </c>
@@ -10034,7 +10048,7 @@
         <v>-1.8854624794690654E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1.4350000000000001</v>
       </c>
@@ -10043,7 +10057,7 @@
         <v>-1.8866021468403063E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.44</v>
       </c>
@@ -10052,7 +10066,7 @@
         <v>-1.8877304743317325E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1.4450000000000001</v>
       </c>
@@ -10061,7 +10075,7 @@
         <v>-1.888847574777034E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1.45</v>
       </c>
@@ -10070,7 +10084,7 @@
         <v>-1.8899535598871857E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1.4550000000000001</v>
       </c>
@@ -10079,7 +10093,7 @@
         <v>-1.8910485402616202E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1.46</v>
       </c>
@@ -10088,7 +10102,7 @@
         <v>-1.8921326253992881E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1.4650000000000001</v>
       </c>
@@ -10097,7 +10111,7 @@
         <v>-1.8932059237096059E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1.47</v>
       </c>
@@ -10106,7 +10120,7 @@
         <v>-1.8942685425232992E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1.4750000000000001</v>
       </c>
@@ -10115,7 +10129,7 @@
         <v>-1.8953205881031353E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1.48</v>
       </c>
@@ -10124,7 +10138,7 @@
         <v>-1.8963621656545485E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1.4850000000000001</v>
       </c>
@@ -10133,7 +10147,7 @@
         <v>-1.8973933793361618E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1.49</v>
       </c>
@@ -10142,7 +10156,7 @@
         <v>-1.898414332270203E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1.4950000000000001</v>
       </c>
@@ -10159,2566 +10173,3578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B04CE23-F713-4886-A21C-B319FBC0E423}">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>-1E-3</v>
       </c>
       <c r="D2">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>-2*PI()+0</f>
         <v>-6.2831853071795862</v>
       </c>
       <c r="B3">
-        <f>$C$2*A3^$B$2+$D$2</f>
+        <f>A3*180/PI()</f>
+        <v>-360</v>
+      </c>
+      <c r="C3">
+        <f>$D$2*A3^$C$2+$E$2</f>
         <v>-4.0478417604357435E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+0.05</f>
         <v>-6.2331853071795864</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">$C$2*A4^$B$2+$D$2</f>
+        <f t="shared" ref="B4:B67" si="0">A4*180/PI()</f>
+        <v>-357.13521102434589</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">$D$2*A4^$C$2+$E$2</f>
         <v>-3.9852599073639479E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="1">A4+0.05</f>
+        <f t="shared" ref="A5:A68" si="2">A4+0.05</f>
         <v>-6.1831853071795866</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
+        <v>-354.27042204869178</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>-3.9231780542921521E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.1331853071795868</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
+        <v>-351.40563307303768</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>-3.8615962012203561E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.0831853071795869</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
+        <v>-348.54084409738357</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>-3.8005143481485607E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.0331853071795871</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
+        <v>-345.67605512172952</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>-3.739932495076765E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9831853071795873</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
+        <v>-342.81126614607541</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>-3.6798506420049691E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9331853071795875</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
+        <v>-339.94647717042125</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>-3.6202687889331737E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.8831853071795877</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>-337.08168819476714</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>-3.5611869358613782E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.8331853071795878</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
+        <v>-334.21689921911303</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>-3.5026050827895824E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.783185307179588</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
+        <v>-331.35211024345892</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>-3.4445232297177872E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.7331853071795882</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
+        <v>-328.48732126780482</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>-3.386941376645991E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.6831853071795884</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
+        <v>-325.62253229215071</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
         <v>-3.3298595235741954E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.6331853071795885</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>-322.7577433164966</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
         <v>-3.2732776705023996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5831853071795887</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
+        <v>-319.89295434084255</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
         <v>-3.2171958174306035E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5331853071795889</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
+        <v>-317.02816536518839</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>-3.161613964358808E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4831853071795891</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
+        <v>-314.16337638953428</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
         <v>-3.1065321112870123E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4331853071795893</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
+        <v>-311.29858741388023</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
         <v>-3.0519502582152171E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.3831853071795894</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
+        <v>-308.43379843822612</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
         <v>-2.9978684051434213E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.3331853071795896</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
+        <v>-305.56900946257196</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
         <v>-2.9442865520716253E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.2831853071795898</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
+        <v>-302.70422048691785</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>-2.8912046989998295E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.23318530717959</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
+        <v>-299.8394315112638</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>-2.8386228459280339E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.1831853071795901</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
+        <v>-296.97464253560969</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
         <v>-2.7865409928562384E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.1331853071795903</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
+        <v>-294.10985355995558</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
         <v>-2.7349591397844427E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.0831853071795905</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
+        <v>-291.24506458430142</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
         <v>-2.6838772867126472E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.0331853071795907</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
+        <v>-288.38027560864737</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
         <v>-2.6332954336408511E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.9831853071795909</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
+        <v>-285.51548663299326</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
         <v>-2.5832135805690552E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.933185307179591</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
+        <v>-282.65069765733915</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
         <v>-2.5336317274972597E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.8831853071795912</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
+        <v>-279.78590868168504</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
         <v>-2.4845498744254638E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.8331853071795914</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
+        <v>-276.92111970603094</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
         <v>-2.4359680213536683E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7831853071795916</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
+        <v>-274.05633073037683</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
         <v>-2.3878861682818723E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7331853071795917</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
+        <v>-271.19154175472272</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
         <v>-2.3403043152100768E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6831853071795919</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
+        <v>-268.32675277906861</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
         <v>-2.2932224621382811E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6331853071795921</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
+        <v>-265.46196380341451</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
         <v>-2.2466406090664852E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5831853071795923</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
+        <v>-262.5971748277604</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
         <v>-2.2005587559946894E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5331853071795924</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
+        <v>-259.73238585210629</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
         <v>-2.1549769029228939E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4831853071795926</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
+        <v>-256.86759687645218</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
         <v>-2.1098950498510977E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4331853071795928</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
+        <v>-254.00280790079808</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
         <v>-2.0653131967793021E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.383185307179593</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
+        <v>-251.13801892514397</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
         <v>-2.0212313437075066E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.3331853071795932</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
+        <v>-248.27322994948989</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
         <v>-1.9776494906357106E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.2831853071795933</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
+        <v>-245.40844097383575</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
         <v>-1.9345676375639147E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.2331853071795935</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
+        <v>-242.54365199818164</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
         <v>-1.891985784492119E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.1831853071795937</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
+        <v>-239.67886302252757</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
         <v>-1.8499039314203231E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.1331853071795939</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
+        <v>-236.81407404687346</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
         <v>-1.8083220783485274E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.083185307179594</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
+        <v>-233.94928507121932</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
         <v>-1.7672402252767318E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.0331853071795942</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
+        <v>-231.08449609556521</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
         <v>-1.726658372204936E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.9831853071795944</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
+        <v>-228.21970711991113</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
         <v>-1.68657651913314E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.9331853071795946</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
+        <v>-225.35491814425703</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>-1.6469946660613442E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8831853071795948</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
+        <v>-222.49012916860289</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
         <v>-1.6079128129895485E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8331853071795949</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
+        <v>-219.62534019294881</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
         <v>-1.5693309599177526E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.7831853071795951</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
+        <v>-216.7605512172947</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
         <v>-1.5312491068459569E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.7331853071795953</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
+        <v>-213.8957622416406</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
         <v>-1.493667253774161E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.6831853071795955</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
+        <v>-211.03097326598649</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
         <v>-1.4565854007023652E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.6331853071795956</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
+        <v>-208.16618429033238</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
         <v>-1.4200035476305693E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.5831853071795958</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
+        <v>-205.30139531467827</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
         <v>-1.3839216945587735E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.533185307179596</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
+        <v>-202.43660633902417</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
         <v>-1.3483398414869778E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.4831853071795962</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
+        <v>-199.57181736337009</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
         <v>-1.313257988415182E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.4331853071795964</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
+        <v>-196.70702838771598</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
         <v>-1.2786761353433859E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3831853071795965</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
+        <v>-193.84223941206184</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
         <v>-1.24459428227159E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3331853071795967</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
+        <v>-190.97745043640774</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
         <v>-1.2110124291997943E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.2831853071795969</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
+        <v>-188.11266146075366</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
         <v>-1.1779305761279984E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.2331853071795971</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
+        <v>-185.24787248509955</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
         <v>-1.1453487230562026E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1831853071795972</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
+        <v>-182.38308350944541</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
         <v>-1.1132668699844066E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1331853071795974</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
+        <v>-179.51829453379131</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
         <v>-1.0816850169126108E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.0831853071795976</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
+        <v>-176.65350555813723</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
         <v>-1.0506031638408148E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.0331853071795978</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B131" si="2">$C$2*A68^$B$2+$D$2</f>
+        <f t="shared" ref="B68:B131" si="3">A68*180/PI()</f>
+        <v>-173.78871658248312</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C131" si="4">$D$2*A68^$C$2+$E$2</f>
         <v>-1.020021310769019E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ref="A69:A132" si="3">A68+0.05</f>
+        <f t="shared" ref="A69:A132" si="5">A68+0.05</f>
         <v>-2.983185307179598</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>-170.92392760682898</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
         <v>-9.8993945769722327E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="5"/>
+        <v>-2.9331853071795981</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="3"/>
-        <v>-2.9331853071795981</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
+        <v>-168.0591386311749</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
         <v>-9.6035760462542738E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="5"/>
+        <v>-2.8831853071795983</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="3"/>
-        <v>-2.8831853071795983</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
+        <v>-165.1943496555208</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
         <v>-9.3127575155363164E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="5"/>
+        <v>-2.8331853071795985</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="3"/>
-        <v>-2.8331853071795985</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
+        <v>-162.32956067986669</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
         <v>-9.026938984818357E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="5"/>
+        <v>-2.7831853071795987</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="3"/>
-        <v>-2.7831853071795987</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
+        <v>-159.46477170421258</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
         <v>-8.7461204541003958E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="5"/>
+        <v>-2.7331853071795988</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="3"/>
-        <v>-2.7331853071795988</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
+        <v>-156.59998272855847</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
         <v>-8.4703019233824395E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="5"/>
+        <v>-2.683185307179599</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="3"/>
-        <v>-2.683185307179599</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
+        <v>-153.73519375290437</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
         <v>-8.1994833926644795E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="5"/>
+        <v>-2.6331853071795992</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="3"/>
-        <v>-2.6331853071795992</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
+        <v>-150.87040477725026</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
         <v>-7.9336648619465211E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="5"/>
+        <v>-2.5831853071795994</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="3"/>
-        <v>-2.5831853071795994</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
+        <v>-148.00561580159615</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
         <v>-7.6728463312285607E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="5"/>
+        <v>-2.5331853071795996</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="3"/>
-        <v>-2.5331853071795996</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
+        <v>-145.14082682594207</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
         <v>-7.4170278005106019E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="5"/>
+        <v>-2.4831853071795997</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="3"/>
-        <v>-2.4831853071795997</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
+        <v>-142.27603785028793</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
         <v>-7.1662092697926429E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="5"/>
+        <v>-2.4331853071795999</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="3"/>
-        <v>-2.4331853071795999</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
+        <v>-139.41124887463386</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
         <v>-6.9203907390746845E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="5"/>
+        <v>-2.3831853071796001</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="3"/>
-        <v>-2.3831853071796001</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
+        <v>-136.54645989897972</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
         <v>-6.679572208356725E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="5"/>
+        <v>-2.3331853071796003</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="3"/>
-        <v>-2.3331853071796003</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
+        <v>-133.68167092332564</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
         <v>-6.4437536776387654E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="5"/>
+        <v>-2.2831853071796004</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="3"/>
-        <v>-2.2831853071796004</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
+        <v>-130.8168819476715</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
         <v>-6.2129351469208064E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="5"/>
+        <v>-2.2331853071796006</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="3"/>
-        <v>-2.2331853071796006</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
+        <v>-127.95209297201741</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
         <v>-5.9871166162028472E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="5"/>
+        <v>-2.1831853071796008</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="3"/>
-        <v>-2.1831853071796008</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
+        <v>-125.08730399636332</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
         <v>-5.7662980854848878E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="5"/>
+        <v>-2.133185307179601</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="3"/>
-        <v>-2.133185307179601</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
+        <v>-122.2225150207092</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
         <v>-5.5504795547669291E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="5"/>
+        <v>-2.0831853071796012</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="3"/>
-        <v>-2.0831853071796012</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
+        <v>-119.3577260450551</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
         <v>-5.3396610240489693E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="5"/>
+        <v>-2.0331853071796013</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="3"/>
-        <v>-2.0331853071796013</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
+        <v>-116.49293706940098</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
         <v>-5.1338424933310093E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="5"/>
+        <v>-1.9831853071796013</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="3"/>
-        <v>-1.9831853071796013</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
+        <v>-113.62814809374687</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
         <v>-4.93302396261305E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="5"/>
+        <v>-1.9331853071796012</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="3"/>
-        <v>-1.9331853071796012</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
+        <v>-110.76335911809275</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
         <v>-4.7372054318950895E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="5"/>
+        <v>-1.8831853071796012</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="3"/>
-        <v>-1.8831853071796012</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
+        <v>-107.89857014243864</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
         <v>-4.5463869011771289E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="5"/>
+        <v>-1.8331853071796012</v>
+      </c>
+      <c r="B92">
         <f t="shared" si="3"/>
-        <v>-1.8331853071796012</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
+        <v>-105.03378116678452</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
         <v>-4.360568370459169E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
+        <f t="shared" si="5"/>
+        <v>-1.7831853071796011</v>
+      </c>
+      <c r="B93">
         <f t="shared" si="3"/>
-        <v>-1.7831853071796011</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
+        <v>-102.1689921911304</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
         <v>-4.1797498397412088E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
+        <f t="shared" si="5"/>
+        <v>-1.7331853071796011</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="3"/>
-        <v>-1.7331853071796011</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
+        <v>-99.304203215476278</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
         <v>-4.0039313090232485E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
+        <f t="shared" si="5"/>
+        <v>-1.683185307179601</v>
+      </c>
+      <c r="B95">
         <f t="shared" si="3"/>
-        <v>-1.683185307179601</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
+        <v>-96.439414239822156</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
         <v>-3.8331127783052879E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
+        <f t="shared" si="5"/>
+        <v>-1.633185307179601</v>
+      </c>
+      <c r="B96">
         <f t="shared" si="3"/>
-        <v>-1.633185307179601</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
+        <v>-93.574625264168034</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
         <v>-3.6672942475873276E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" si="5"/>
+        <v>-1.5831853071796009</v>
+      </c>
+      <c r="B97">
         <f t="shared" si="3"/>
-        <v>-1.5831853071796009</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
+        <v>-90.709836288513927</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
         <v>-3.5064757168693675E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="5"/>
+        <v>-1.5331853071796009</v>
+      </c>
+      <c r="B98">
         <f t="shared" si="3"/>
-        <v>-1.5331853071796009</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="2"/>
+        <v>-87.845047312859805</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
         <v>-3.3506571861514072E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="5"/>
+        <v>-1.4831853071796008</v>
+      </c>
+      <c r="B99">
         <f t="shared" si="3"/>
-        <v>-1.4831853071796008</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="2"/>
+        <v>-84.980258337205697</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
         <v>-3.1998386554334471E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
+        <f t="shared" si="5"/>
+        <v>-1.4331853071796008</v>
+      </c>
+      <c r="B100">
         <f t="shared" si="3"/>
-        <v>-1.4331853071796008</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="2"/>
+        <v>-82.115469361551575</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
         <v>-3.0540201247154868E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
+        <f t="shared" si="5"/>
+        <v>-1.3831853071796008</v>
+      </c>
+      <c r="B101">
         <f t="shared" si="3"/>
-        <v>-1.3831853071796008</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="2"/>
+        <v>-79.250680385897454</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="4"/>
         <v>-2.9132015939975263E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f t="shared" si="5"/>
+        <v>-1.3331853071796007</v>
+      </c>
+      <c r="B102">
         <f t="shared" si="3"/>
-        <v>-1.3331853071796007</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="2"/>
+        <v>-76.385891410243332</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
         <v>-2.7773830632795665E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
+        <f t="shared" si="5"/>
+        <v>-1.2831853071796007</v>
+      </c>
+      <c r="B103">
         <f t="shared" si="3"/>
-        <v>-1.2831853071796007</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="2"/>
+        <v>-73.52110243458921</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="4"/>
         <v>-2.646564532561606E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
+        <f t="shared" si="5"/>
+        <v>-1.2331853071796006</v>
+      </c>
+      <c r="B104">
         <f t="shared" si="3"/>
-        <v>-1.2331853071796006</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="2"/>
+        <v>-70.656313458935088</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
         <v>-2.5207460018436458E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
+        <f t="shared" si="5"/>
+        <v>-1.1831853071796006</v>
+      </c>
+      <c r="B105">
         <f t="shared" si="3"/>
-        <v>-1.1831853071796006</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="2"/>
+        <v>-67.79152448328098</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
         <v>-2.3999274711256858E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
+        <f t="shared" si="5"/>
+        <v>-1.1331853071796005</v>
+      </c>
+      <c r="B106">
         <f t="shared" si="3"/>
-        <v>-1.1331853071796005</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="2"/>
+        <v>-64.926735507626859</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
         <v>-2.2841089404077256E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
+        <f t="shared" si="5"/>
+        <v>-1.0831853071796005</v>
+      </c>
+      <c r="B107">
         <f t="shared" si="3"/>
-        <v>-1.0831853071796005</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="2"/>
+        <v>-62.061946531972737</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
         <v>-2.1732904096897652E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
+        <f t="shared" si="5"/>
+        <v>-1.0331853071796004</v>
+      </c>
+      <c r="B108">
         <f t="shared" si="3"/>
-        <v>-1.0331853071796004</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="2"/>
+        <v>-59.197157556318615</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
         <v>-2.0674718789718055E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
+        <f t="shared" si="5"/>
+        <v>-0.9831853071796004</v>
+      </c>
+      <c r="B109">
         <f t="shared" si="3"/>
-        <v>-0.9831853071796004</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="2"/>
+        <v>-56.3323685806645</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
         <v>-1.9666533482538451E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
+        <f t="shared" si="5"/>
+        <v>-0.93318530717960035</v>
+      </c>
+      <c r="B110">
         <f t="shared" si="3"/>
-        <v>-0.93318530717960035</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="2"/>
+        <v>-53.467579605010378</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
         <v>-1.8708348175358852E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
+        <f t="shared" si="5"/>
+        <v>-0.88318530717960031</v>
+      </c>
+      <c r="B111">
         <f t="shared" si="3"/>
-        <v>-0.88318530717960031</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="2"/>
+        <v>-50.602790629356264</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
         <v>-1.780016286817925E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
+        <f t="shared" si="5"/>
+        <v>-0.83318530717960027</v>
+      </c>
+      <c r="B112">
         <f t="shared" si="3"/>
-        <v>-0.83318530717960027</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="2"/>
+        <v>-47.738001653702142</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
         <v>-1.6941977560999649E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
+        <f t="shared" si="5"/>
+        <v>-0.78318530717960022</v>
+      </c>
+      <c r="B113">
         <f t="shared" si="3"/>
-        <v>-0.78318530717960022</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="2"/>
+        <v>-44.873212678048027</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
         <v>-1.6133792253820048E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
+        <f t="shared" si="5"/>
+        <v>-0.73318530717960018</v>
+      </c>
+      <c r="B114">
         <f t="shared" si="3"/>
-        <v>-0.73318530717960018</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="2"/>
+        <v>-42.008423702393905</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
         <v>-1.5375606946640447E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
+        <f t="shared" si="5"/>
+        <v>-0.68318530717960013</v>
+      </c>
+      <c r="B115">
         <f t="shared" si="3"/>
-        <v>-0.68318530717960013</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="2"/>
+        <v>-39.143634726739784</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
         <v>-1.4667421639460846E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
+        <f t="shared" si="5"/>
+        <v>-0.63318530717960009</v>
+      </c>
+      <c r="B116">
         <f t="shared" si="3"/>
-        <v>-0.63318530717960009</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="2"/>
+        <v>-36.278845751085669</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
         <v>-1.4009236332281245E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
+        <f t="shared" si="5"/>
+        <v>-0.58318530717960004</v>
+      </c>
+      <c r="B117">
         <f t="shared" si="3"/>
-        <v>-0.58318530717960004</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="2"/>
+        <v>-33.414056775431547</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
         <v>-1.3401051025101645E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
+        <f t="shared" si="5"/>
+        <v>-0.5331853071796</v>
+      </c>
+      <c r="B118">
         <f t="shared" si="3"/>
-        <v>-0.5331853071796</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="2"/>
+        <v>-30.549267799777429</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
         <v>-1.2842865717922044E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
+        <f t="shared" si="5"/>
+        <v>-0.48318530717960001</v>
+      </c>
+      <c r="B119">
         <f t="shared" si="3"/>
-        <v>-0.48318530717960001</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="2"/>
+        <v>-27.684478824123318</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
         <v>-1.2334680410742444E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
+        <f t="shared" si="5"/>
+        <v>-0.43318530717960002</v>
+      </c>
+      <c r="B120">
         <f t="shared" si="3"/>
-        <v>-0.43318530717960002</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="2"/>
+        <v>-24.819689848469203</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="4"/>
         <v>-1.1876495103562844E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
+        <f t="shared" si="5"/>
+        <v>-0.38318530717960003</v>
+      </c>
+      <c r="B121">
         <f t="shared" si="3"/>
-        <v>-0.38318530717960003</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="2"/>
+        <v>-21.954900872815085</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="4"/>
         <v>-1.1468309796383244E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
+        <f t="shared" si="5"/>
+        <v>-0.33318530717960004</v>
+      </c>
+      <c r="B122">
         <f t="shared" si="3"/>
-        <v>-0.33318530717960004</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="2"/>
+        <v>-19.09011189716097</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="4"/>
         <v>-1.1110124489203644E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
+        <f t="shared" si="5"/>
+        <v>-0.28318530717960005</v>
+      </c>
+      <c r="B123">
         <f t="shared" si="3"/>
-        <v>-0.28318530717960005</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="2"/>
+        <v>-16.225322921506852</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="4"/>
         <v>-1.0801939182024044E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
+        <f t="shared" si="5"/>
+        <v>-0.23318530717960007</v>
+      </c>
+      <c r="B124">
         <f t="shared" si="3"/>
-        <v>-0.23318530717960007</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="2"/>
+        <v>-13.360533945852737</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="4"/>
         <v>-1.0543753874844445E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
+        <f t="shared" si="5"/>
+        <v>-0.18318530717960008</v>
+      </c>
+      <c r="B125">
         <f t="shared" si="3"/>
-        <v>-0.18318530717960008</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="2"/>
+        <v>-10.495744970198622</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
         <v>-1.0335568567664845E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
+        <f t="shared" si="5"/>
+        <v>-0.13318530717960009</v>
+      </c>
+      <c r="B126">
         <f t="shared" si="3"/>
-        <v>-0.13318530717960009</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="2"/>
+        <v>-7.6309559945445065</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
         <v>-1.0177383260485244E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
+        <f t="shared" si="5"/>
+        <v>-8.3185307179600085E-2</v>
+      </c>
+      <c r="B127">
         <f t="shared" si="3"/>
-        <v>-8.3185307179600085E-2</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="2"/>
+        <v>-4.7661670188903908</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
         <v>-1.0069197953305644E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
+        <f t="shared" si="5"/>
+        <v>-3.3185307179600082E-2</v>
+      </c>
+      <c r="B128">
         <f t="shared" si="3"/>
-        <v>-3.3185307179600082E-2</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="2"/>
+        <v>-1.9013780432362741</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
         <v>-1.0011012646126045E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
+        <f t="shared" si="5"/>
+        <v>1.6814692820399921E-2</v>
+      </c>
+      <c r="B129">
         <f t="shared" si="3"/>
-        <v>1.6814692820399921E-2</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="2"/>
+        <v>0.96341093241784215</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
         <v>-1.0002827338946444E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
+        <f t="shared" si="5"/>
+        <v>6.6814692820399924E-2</v>
+      </c>
+      <c r="B130">
         <f t="shared" si="3"/>
-        <v>6.6814692820399924E-2</v>
-      </c>
-      <c r="B130">
-        <f t="shared" si="2"/>
+        <v>3.8281999080719586</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
         <v>-1.0044642031766845E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
+        <f t="shared" si="5"/>
+        <v>0.11681469282039993</v>
+      </c>
+      <c r="B131">
         <f t="shared" si="3"/>
-        <v>0.11681469282039993</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="2"/>
+        <v>6.6929888837260751</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="4"/>
         <v>-1.0136456724587244E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16681469282039993</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B195" si="4">$C$2*A132^$B$2+$D$2</f>
+        <f t="shared" ref="B132:B195" si="6">A132*180/PI()</f>
+        <v>9.5577778593801916</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="7">$D$2*A132^$C$2+$E$2</f>
         <v>-1.0278271417407643E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A196" si="5">A132+0.05</f>
+        <f t="shared" ref="A133:A196" si="8">A132+0.05</f>
         <v>0.21681469282039995</v>
       </c>
       <c r="B133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>12.422566835034308</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="7"/>
         <v>-1.0470086110228045E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.26681469282039993</v>
       </c>
       <c r="B134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>15.287355810688425</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="7"/>
         <v>-1.0711900803048444E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31681469282039992</v>
       </c>
       <c r="B135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>18.152144786342539</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="7"/>
         <v>-1.1003715495868844E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.36681469282039991</v>
       </c>
       <c r="B136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>21.016933761996654</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="7"/>
         <v>-1.1345530188689244E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.4168146928203999</v>
       </c>
       <c r="B137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>23.881722737650769</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="7"/>
         <v>-1.1737344881509644E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.46681469282039989</v>
       </c>
       <c r="B138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>26.746511713304884</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="7"/>
         <v>-1.2179159574330044E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.51681469282039993</v>
       </c>
       <c r="B139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>29.611300688959005</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="7"/>
         <v>-1.2670974267150444E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.56681469282039998</v>
       </c>
       <c r="B140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>32.47608966461312</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="7"/>
         <v>-1.3212788959970844E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61681469282040002</v>
       </c>
       <c r="B141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>35.340878640267242</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="7"/>
         <v>-1.3804603652791245E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.66681469282040007</v>
       </c>
       <c r="B142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>38.205667615921357</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="7"/>
         <v>-1.4446418345611645E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.71681469282040011</v>
       </c>
       <c r="B143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>41.070456591575486</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="7"/>
         <v>-1.5138233038432046E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.76681469282040016</v>
       </c>
       <c r="B144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>43.9352455672296</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="7"/>
         <v>-1.5880047731252449E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.8168146928204002</v>
       </c>
       <c r="B145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>46.800034542883715</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="7"/>
         <v>-1.6671862424072848E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.86681469282040025</v>
       </c>
       <c r="B146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>49.66482351853783</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="7"/>
         <v>-1.7513677116893249E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.91681469282040029</v>
       </c>
       <c r="B147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>52.529612494191959</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="7"/>
         <v>-1.840549180971365E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.96681469282040033</v>
       </c>
       <c r="B148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>55.394401469846073</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="7"/>
         <v>-1.9347306502534051E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0168146928204003</v>
       </c>
       <c r="B149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>58.259190445500188</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="7"/>
         <v>-2.033912119535445E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0668146928204003</v>
       </c>
       <c r="B150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>61.123979421154303</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="7"/>
         <v>-2.138093588817485E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1168146928204004</v>
       </c>
       <c r="B151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>63.988768396808425</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="7"/>
         <v>-2.2472750580995252E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1668146928204004</v>
       </c>
       <c r="B152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>66.853557372462532</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="7"/>
         <v>-2.3614565273815651E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2168146928204004</v>
       </c>
       <c r="B153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>69.718346348116668</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="7"/>
         <v>-2.4806379966636058E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2668146928204005</v>
       </c>
       <c r="B154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>72.583135323770776</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="7"/>
         <v>-2.6048194659456458E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3168146928204005</v>
       </c>
       <c r="B155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>75.447924299424898</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="7"/>
         <v>-2.7340009352276855E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3668146928204006</v>
       </c>
       <c r="B156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>78.312713275079005</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="7"/>
         <v>-2.868182404509726E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4168146928204006</v>
       </c>
       <c r="B157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>81.177502250733141</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="7"/>
         <v>-3.0073638737917662E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4668146928204007</v>
       </c>
       <c r="B158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>84.042291226387249</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="7"/>
         <v>-3.1515453430738063E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5168146928204007</v>
       </c>
       <c r="B159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>86.907080202041371</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="7"/>
         <v>-3.3007268123558466E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5668146928204008</v>
       </c>
       <c r="B160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>89.771869177695478</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="7"/>
         <v>-3.4549082816378871E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6168146928204008</v>
       </c>
       <c r="B161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>92.6366581533496</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="7"/>
         <v>-3.614089750919927E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6668146928204008</v>
       </c>
       <c r="B162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>95.501447129003736</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="7"/>
         <v>-3.7782712202019671E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7168146928204009</v>
       </c>
       <c r="B163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>98.366236104657858</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="7"/>
         <v>-3.9474526894840069E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7668146928204009</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>101.23102508031197</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="7"/>
         <v>-4.1216341587660479E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.816814692820401</v>
       </c>
       <c r="B165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>104.09581405596609</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="7"/>
         <v>-4.3008156280480879E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.866814692820401</v>
       </c>
       <c r="B166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>106.9606030316202</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="7"/>
         <v>-4.4849970973301284E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9168146928204011</v>
       </c>
       <c r="B167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>109.82539200727432</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="7"/>
         <v>-4.6741785666121688E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9668146928204011</v>
       </c>
       <c r="B168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>112.69018098292844</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="7"/>
         <v>-4.868360035894209E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0168146928204012</v>
       </c>
       <c r="B169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>115.55496995858256</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="7"/>
         <v>-5.067541505176249E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.066814692820401</v>
       </c>
       <c r="B170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>118.41975893423667</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="7"/>
         <v>-5.2717229744582888E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1168146928204008</v>
       </c>
       <c r="B171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>121.28454790989076</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="7"/>
         <v>-5.4809044437403283E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1668146928204006</v>
       </c>
       <c r="B172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>124.14933688554488</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="7"/>
         <v>-5.6950859130223668E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2168146928204004</v>
       </c>
       <c r="B173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>127.01412586119898</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="7"/>
         <v>-5.9142673823044068E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2668146928204003</v>
       </c>
       <c r="B174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>129.87891483685308</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="7"/>
         <v>-6.1384488515864458E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.3168146928204001</v>
       </c>
       <c r="B175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>132.74370381250719</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="7"/>
         <v>-6.3676303208684846E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.3668146928203999</v>
       </c>
       <c r="B176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>135.6084927881613</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="7"/>
         <v>-6.601811790150524E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4168146928203997</v>
       </c>
       <c r="B177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>138.47328176381541</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="7"/>
         <v>-6.840993259432564E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4668146928203996</v>
       </c>
       <c r="B178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>141.33807073946952</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="7"/>
         <v>-7.0851747287146022E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5168146928203994</v>
       </c>
       <c r="B179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>144.20285971512362</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="7"/>
         <v>-7.334356197996641E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5668146928203992</v>
       </c>
       <c r="B180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>147.06764869077773</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="7"/>
         <v>-7.5885376672786805E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.616814692820399</v>
       </c>
       <c r="B181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>149.93243766643184</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="7"/>
         <v>-7.8477191365607206E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6668146928203988</v>
       </c>
       <c r="B182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>152.79722664208595</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="7"/>
         <v>-8.1119006058427597E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7168146928203987</v>
       </c>
       <c r="B183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>155.66201561774005</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="7"/>
         <v>-8.3810820751247968E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7668146928203985</v>
       </c>
       <c r="B184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>158.52680459339416</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="7"/>
         <v>-8.6552635444068354E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8168146928203983</v>
       </c>
       <c r="B185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>161.39159356904827</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="7"/>
         <v>-8.9344450136888756E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8668146928203981</v>
       </c>
       <c r="B186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>164.25638254470238</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="7"/>
         <v>-9.2186264829709139E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.916814692820398</v>
       </c>
       <c r="B187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>167.12117152035646</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="7"/>
         <v>-9.5078079522529536E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9668146928203978</v>
       </c>
       <c r="B188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>169.98596049601056</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="7"/>
         <v>-9.8019894215349915E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0168146928203976</v>
       </c>
       <c r="B189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>172.8507494716647</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="7"/>
         <v>-1.0101170890817031E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0668146928203974</v>
       </c>
       <c r="B190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>175.71553844731878</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="7"/>
         <v>-1.0405352360099068E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1168146928203972</v>
       </c>
       <c r="B191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>178.58032742297289</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="7"/>
         <v>-1.0714533829381107E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1668146928203971</v>
       </c>
       <c r="B192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>181.44511639862699</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="7"/>
         <v>-1.1028715298663148E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2168146928203969</v>
       </c>
       <c r="B193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>184.30990537428113</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="7"/>
         <v>-1.1347896767945186E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2668146928203967</v>
       </c>
       <c r="B194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>187.17469434993521</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="7"/>
         <v>-1.1672078237227223E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.3168146928203965</v>
       </c>
       <c r="B195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>190.03948332558932</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="7"/>
         <v>-1.2001259706509261E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.3668146928203964</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B255" si="6">$C$2*A196^$B$2+$D$2</f>
+        <f t="shared" ref="B196:B255" si="9">A196*180/PI()</f>
+        <v>192.90427230124342</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C255" si="10">$D$2*A196^$C$2+$E$2</f>
         <v>-1.2335441175791301E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" ref="A197:A260" si="7">A196+0.05</f>
+        <f t="shared" ref="A197:A254" si="11">A196+0.05</f>
         <v>3.4168146928203962</v>
       </c>
       <c r="B197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>195.7690612768975</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="10"/>
         <v>-1.2674622645073338E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.466814692820396</v>
       </c>
       <c r="B198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>198.63385025255164</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="10"/>
         <v>-1.3018804114355378E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5168146928203958</v>
       </c>
       <c r="B199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>201.49863922820575</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="10"/>
         <v>-1.3367985583637415E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5668146928203956</v>
       </c>
       <c r="B200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>204.36342820385985</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="10"/>
         <v>-1.3722167052919454E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6168146928203955</v>
       </c>
       <c r="B201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>207.22821717951393</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="10"/>
         <v>-1.4081348522201491E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6668146928203953</v>
       </c>
       <c r="B202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>210.09300615516807</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="10"/>
         <v>-1.4445529991483529E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.7168146928203951</v>
       </c>
       <c r="B203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>212.95779513082218</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="10"/>
         <v>-1.4814711460765569E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.7668146928203949</v>
       </c>
       <c r="B204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>215.82258410647626</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="10"/>
         <v>-1.5188892930047607E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.8168146928203948</v>
       </c>
       <c r="B205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>218.68737308213036</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="10"/>
         <v>-1.5568074399329643E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.8668146928203946</v>
       </c>
       <c r="B206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>221.55216205778447</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="10"/>
         <v>-1.5952255868611685E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.9168146928203944</v>
       </c>
       <c r="B207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>224.41695103343861</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="10"/>
         <v>-1.634143733789372E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.9668146928203942</v>
       </c>
       <c r="B208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>227.28174000909269</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="10"/>
         <v>-1.6735618807175758E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0168146928203941</v>
       </c>
       <c r="B209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>230.14652898474679</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="10"/>
         <v>-1.7134800276457796E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0668146928203939</v>
       </c>
       <c r="B210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>233.0113179604009</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="10"/>
         <v>-1.7538981745739837E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.1168146928203937</v>
       </c>
       <c r="B211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>235.87610693605498</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="10"/>
         <v>-1.7948163215021871E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.1668146928203935</v>
       </c>
       <c r="B212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>238.74089591170912</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="10"/>
         <v>-1.8362344684303911E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.2168146928203933</v>
       </c>
       <c r="B213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>241.60568488736322</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="10"/>
         <v>-1.8781526153585949E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.2668146928203932</v>
       </c>
       <c r="B214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>244.47047386301733</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="10"/>
         <v>-1.9205707622867989E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.316814692820393</v>
       </c>
       <c r="B215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>247.33526283867141</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="10"/>
         <v>-1.9634889092150023E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.3668146928203928</v>
       </c>
       <c r="B216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>250.20005181432555</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="10"/>
         <v>-2.0069070561432062E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4168146928203926</v>
       </c>
       <c r="B217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>253.06484078997966</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="10"/>
         <v>-2.0508252030714103E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4668146928203925</v>
       </c>
       <c r="B218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>255.92962976563373</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="10"/>
         <v>-2.0952433499996138E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.5168146928203923</v>
       </c>
       <c r="B219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>258.79441874128787</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="10"/>
         <v>-2.1401614969278174E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.5668146928203921</v>
       </c>
       <c r="B220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>261.65920771694198</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="10"/>
         <v>-2.1855796438560213E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.6168146928203919</v>
       </c>
       <c r="B221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>264.52399669259609</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="10"/>
         <v>-2.2314977907842249E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.6668146928203917</v>
       </c>
       <c r="B222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>267.38878566825014</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="10"/>
         <v>-2.277915937712429E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7168146928203916</v>
       </c>
       <c r="B223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>270.2535746439043</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="10"/>
         <v>-2.3248340846406326E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7668146928203914</v>
       </c>
       <c r="B224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>273.11836361955841</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="10"/>
         <v>-2.3722522315688364E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8168146928203912</v>
       </c>
       <c r="B225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>275.98315259521252</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="10"/>
         <v>-2.4201703784970399E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.866814692820391</v>
       </c>
       <c r="B226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>278.84794157086657</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="10"/>
         <v>-2.468588525425244E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.9168146928203909</v>
       </c>
       <c r="B227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>281.71273054652073</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="10"/>
         <v>-2.5175066723534475E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.9668146928203907</v>
       </c>
       <c r="B228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>284.57751952217484</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="10"/>
         <v>-2.5669248192816511E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.0168146928203905</v>
       </c>
       <c r="B229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>287.44230849782889</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="10"/>
         <v>-2.6168429662098553E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.0668146928203903</v>
       </c>
       <c r="B230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>290.307097473483</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="10"/>
         <v>-2.6672611131380589E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1168146928203901</v>
       </c>
       <c r="B231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>293.17188644913716</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="10"/>
         <v>-2.7181792600662627E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.16681469282039</v>
       </c>
       <c r="B232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>296.03667542479127</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="10"/>
         <v>-2.7695974069944663E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.2168146928203898</v>
       </c>
       <c r="B233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>298.90146440044532</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="10"/>
         <v>-2.8215155539226697E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.2668146928203896</v>
       </c>
       <c r="B234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>301.76625337609943</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="10"/>
         <v>-2.8739337008508736E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3168146928203894</v>
       </c>
       <c r="B235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>304.63104235175354</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="10"/>
         <v>-2.9268518477790773E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3668146928203893</v>
       </c>
       <c r="B236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>307.49583132740764</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="10"/>
         <v>-2.9802699947072811E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.4168146928203891</v>
       </c>
       <c r="B237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>310.36062030306175</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="10"/>
         <v>-3.0341881416354848E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.4668146928203889</v>
       </c>
       <c r="B238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>313.22540927871586</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="10"/>
         <v>-3.0886062885636882E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.5168146928203887</v>
       </c>
       <c r="B239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>316.09019825436997</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="10"/>
         <v>-3.1435244354918915E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.5668146928203885</v>
       </c>
       <c r="B240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>318.95498723002407</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="10"/>
         <v>-3.1989425824200959E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.6168146928203884</v>
       </c>
       <c r="B241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>321.81977620567818</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="10"/>
         <v>-3.2548607293482995E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.6668146928203882</v>
       </c>
       <c r="B242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>324.68456518133229</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="10"/>
         <v>-3.3112788762765029E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.716814692820388</v>
       </c>
       <c r="B243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>327.5493541569864</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="10"/>
         <v>-3.3681970232047068E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.7668146928203878</v>
       </c>
       <c r="B244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>330.41414313264056</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="10"/>
         <v>-3.4256151701329104E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8168146928203877</v>
       </c>
       <c r="B245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>333.27893210829455</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="10"/>
         <v>-3.4835333170611146E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8668146928203875</v>
       </c>
       <c r="B246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>336.14372108394872</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="10"/>
         <v>-3.5419514639893179E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.9168146928203873</v>
       </c>
       <c r="B247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>339.00851005960283</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="10"/>
         <v>-3.600869610917521E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.9668146928203871</v>
       </c>
       <c r="B248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>341.87329903525693</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="10"/>
         <v>-3.6602877578457253E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.0168146928203869</v>
       </c>
       <c r="B249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>344.73808801091104</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="10"/>
         <v>-3.7202059047739294E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.0668146928203868</v>
       </c>
       <c r="B250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>347.60287698656515</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="10"/>
         <v>-3.7806240517021326E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.1168146928203866</v>
       </c>
       <c r="B251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>350.46766596221926</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="10"/>
         <v>-3.8415421986303357E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.1668146928203864</v>
       </c>
       <c r="B252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>353.33245493787331</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="10"/>
         <v>-3.9029603455585399E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.2168146928203862</v>
       </c>
       <c r="B253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>356.19724391352742</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="10"/>
         <v>-3.9648784924867439E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.2668146928203861</v>
       </c>
       <c r="B254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>359.06203288918158</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="10"/>
         <v>-4.027296639414947E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>2*PI()</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="B255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="10"/>
         <v>-4.0478417604357435E-2</v>
       </c>
     </row>
@@ -12730,49 +13756,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832AA846-7ABB-41CD-872F-5AF803845062}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>$B$2*A3+$C$2</f>
+        <f>$C$2*A3^$B$2+$D$2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1E-3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">$B$2*A4+$C$2</f>
+        <f t="shared" ref="B4:B67" si="0">$C$2*A4^$B$2+$D$2</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2E-3</v>
       </c>
@@ -12781,7 +13813,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -12790,7 +13822,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -12799,7 +13831,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12808,7 +13840,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -12817,7 +13849,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12826,7 +13858,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -12835,7 +13867,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -12844,7 +13876,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.01</v>
       </c>
@@ -12853,7 +13885,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -12862,7 +13894,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.2E-2</v>
       </c>
@@ -12871,7 +13903,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -12880,7 +13912,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.4E-2</v>
       </c>
@@ -12889,7 +13921,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -12898,7 +13930,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.6E-2</v>
       </c>
@@ -12907,7 +13939,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -12916,7 +13948,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -12925,7 +13957,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9E-2</v>
       </c>
@@ -12934,7 +13966,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.02</v>
       </c>
@@ -12943,7 +13975,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -12952,7 +13984,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -12961,7 +13993,7 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.3E-2</v>
       </c>
@@ -12970,7 +14002,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.4E-2</v>
       </c>
@@ -12979,7 +14011,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -12988,7 +14020,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -12997,7 +14029,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.7E-2</v>
       </c>
@@ -13006,7 +14038,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -13015,7 +14047,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -13024,7 +14056,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.03</v>
       </c>
@@ -13033,7 +14065,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.1E-2</v>
       </c>
@@ -13042,7 +14074,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -13051,7 +14083,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -13060,7 +14092,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -13069,7 +14101,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -13078,7 +14110,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -13087,7 +14119,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -13096,7 +14128,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -13105,7 +14137,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.9E-2</v>
       </c>
@@ -13114,7 +14146,7 @@
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.04</v>
       </c>
@@ -13123,7 +14155,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -13132,7 +14164,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -13141,7 +14173,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -13150,7 +14182,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -13159,7 +14191,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -13168,7 +14200,7 @@
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -13177,7 +14209,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.7E-2</v>
       </c>
@@ -13186,7 +14218,7 @@
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -13195,7 +14227,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.9000000000000002E-2</v>
       </c>
@@ -13204,7 +14236,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.05</v>
       </c>
@@ -13213,7 +14245,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.0999999999999997E-2</v>
       </c>
@@ -13222,7 +14254,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -13231,7 +14263,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -13240,7 +14272,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -13249,7 +14281,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.5E-2</v>
       </c>
@@ -13258,7 +14290,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.6000000000000001E-2</v>
       </c>
@@ -13267,7 +14299,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.7000000000000002E-2</v>
       </c>
@@ -13276,7 +14308,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -13285,7 +14317,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -13294,7 +14326,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.06</v>
       </c>
@@ -13303,7 +14335,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -13312,7 +14344,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.2E-2</v>
       </c>
@@ -13321,7 +14353,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6.3E-2</v>
       </c>
@@ -13330,7 +14362,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -13339,16 +14371,16 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B103" si="1">$B$2*A68+$C$2</f>
+        <f t="shared" ref="B68:B103" si="1">$C$2*A68^$B$2+$D$2</f>
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -13357,7 +14389,7 @@
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -13366,7 +14398,7 @@
         <v>-6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -13375,7 +14407,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -13384,7 +14416,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13393,7 +14425,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -13402,7 +14434,7 @@
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -13411,7 +14443,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -13420,7 +14452,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -13429,7 +14461,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -13438,7 +14470,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7.6000000000000095E-2</v>
       </c>
@@ -13447,7 +14479,7 @@
         <v>-7.6000000000000095E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7.7000000000000096E-2</v>
       </c>
@@ -13456,7 +14488,7 @@
         <v>-7.7000000000000096E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7.8000000000000097E-2</v>
       </c>
@@ -13465,7 +14497,7 @@
         <v>-7.8000000000000097E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7.9000000000000098E-2</v>
       </c>
@@ -13474,7 +14506,7 @@
         <v>-7.9000000000000098E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -13483,7 +14515,7 @@
         <v>-8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8.10000000000001E-2</v>
       </c>
@@ -13492,7 +14524,7 @@
         <v>-8.10000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8.2000000000000101E-2</v>
       </c>
@@ -13501,7 +14533,7 @@
         <v>-8.2000000000000101E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8.3000000000000101E-2</v>
       </c>
@@ -13510,7 +14542,7 @@
         <v>-8.3000000000000101E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8.4000000000000102E-2</v>
       </c>
@@ -13519,7 +14551,7 @@
         <v>-8.4000000000000102E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8.5000000000000103E-2</v>
       </c>
@@ -13528,7 +14560,7 @@
         <v>-8.5000000000000103E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8.6000000000000104E-2</v>
       </c>
@@ -13537,7 +14569,7 @@
         <v>-8.6000000000000104E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8.7000000000000105E-2</v>
       </c>
@@ -13546,7 +14578,7 @@
         <v>-8.7000000000000105E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8.8000000000000106E-2</v>
       </c>
@@ -13555,7 +14587,7 @@
         <v>-8.8000000000000106E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8.9000000000000107E-2</v>
       </c>
@@ -13564,7 +14596,7 @@
         <v>-8.9000000000000107E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9.0000000000000094E-2</v>
       </c>
@@ -13573,7 +14605,7 @@
         <v>-9.0000000000000094E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9.1000000000000095E-2</v>
       </c>
@@ -13582,7 +14614,7 @@
         <v>-9.1000000000000095E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9.2000000000000096E-2</v>
       </c>
@@ -13591,7 +14623,7 @@
         <v>-9.2000000000000096E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9.3000000000000096E-2</v>
       </c>
@@ -13600,7 +14632,7 @@
         <v>-9.3000000000000096E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9.4000000000000097E-2</v>
       </c>
@@ -13609,7 +14641,7 @@
         <v>-9.4000000000000097E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9.5000000000000098E-2</v>
       </c>
@@ -13618,7 +14650,7 @@
         <v>-9.5000000000000098E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9.6000000000000099E-2</v>
       </c>
@@ -13627,7 +14659,7 @@
         <v>-9.6000000000000099E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9.70000000000001E-2</v>
       </c>
@@ -13636,7 +14668,7 @@
         <v>-9.70000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9.8000000000000101E-2</v>
       </c>
@@ -13645,7 +14677,7 @@
         <v>-9.8000000000000101E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9.9000000000000102E-2</v>
       </c>
@@ -13654,7 +14686,7 @@
         <v>-9.9000000000000102E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.1</v>
       </c>

--- a/Documentation/Reward_Parameters.xlsx
+++ b/Documentation/Reward_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\MATLAB\SimscapeSatelliteInspection\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED0F66-6748-413E-A6A5-583B0EA2816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBFA7C0-55E2-41A2-888B-4D51A80D0AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="972" windowWidth="21600" windowHeight="11388" activeTab="2" xr2:uid="{21604E66-B88B-4810-977B-379932FB21BA}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9024" firstSheet="2" activeTab="6" xr2:uid="{21604E66-B88B-4810-977B-379932FB21BA}"/>
   </bookViews>
   <sheets>
     <sheet name="EE_Position" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="EE_Orientation" sheetId="6" r:id="rId4"/>
     <sheet name="Control" sheetId="7" r:id="rId5"/>
     <sheet name="Smoothness" sheetId="9" r:id="rId6"/>
+    <sheet name="Coverage" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Bias</t>
   </si>
@@ -51,6 +52,24 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -11213,6 +11232,1041 @@
                   <a:t> Error (m)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595611320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="595611320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reward Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595595640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coverage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Reward</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Coverage!$A$4:$A$303</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Coverage!$B$4:$B$303</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8162976389793695E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6655846490923683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5484602155080109E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4655344063813578E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4174283705210415E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11404774538646767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13428216828302508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15488410852491374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17586024132099976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19721736312181015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21896239382164273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24110237900067166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26364449220777786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28659603728484062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3099644507332473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33375730412338456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35798230654789265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38264730711947958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40776029751410259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43332941456034035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4593629428757966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48586931755138973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51285712688439467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54033511516112709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56831218549016893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59679740268705261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62579999621134164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65532936315705514</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68539507129740884</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71600686218485854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74717465430744623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77890854630247852</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81121882022857283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84411594489713448</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87761057926434316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91171357588474833</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94643598442759136</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98178905525699478</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0177842430771791</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0544332106438881</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0917478325432208</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1297401990391056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1684226199906478</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2078076288406328</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2479079866764717</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.288736686364905</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3303069567618055</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3726322669984423</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4157263308455978</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4596031111569499</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5042768243931568</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5497619452281173</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5960732112388905</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6432256276807986</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6912344723492625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7401153005299417</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7898839500387789</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8405565463535978</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8921495078388926</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9446795510655241</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9981636962270355</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.052619272654344</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1080639244305943</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1645156161079973</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2219926385285005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2805136147501828</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3400975060812876</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4007636182238512</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4625316075289199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5254214873653824</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5894536346044714</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6546487962220517</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.7210280960208211</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.7886130414746066</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.8574255306969745</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9274878595364116</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.998822728800373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0714532516105448</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1454029608916967</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2206958169965532</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.2973562154691631</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3754089949492627</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4548794452202172</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.5357933154031294</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6181768222997812</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.7020566588871047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7874600029659442</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8744145259668965</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9629484019161012</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0530903165638676</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.144869476679113</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2383156195126066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3334590224321019</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4303305127324677</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5289614776240041</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6293838744021683</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7316302408020201</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8357337055407354</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9417279990515954</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0496474644129465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E38-4461-8E9A-141CF86090EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="595595640"/>
+        <c:axId val="595611320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="595595640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Faces Covered</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11656,6 +12710,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14791,6 +15885,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15027,6 +16637,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DFCC81-BD7A-4363-A9E9-E2C70CA8BA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED3F0A-9197-44C3-AA6F-93371F014F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21739,7 +23392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D3764F-0861-407A-B11B-13C66D84A4F6}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -29954,4 +31607,965 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA46DC3-B71F-4361-89CF-C6900FE3717A}">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1.8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>$C$3*EXP($B$3*A4)+$D$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <f>$C$3*EXP($B$3*A5)+$D$3</f>
+        <v>1.8162976389793695E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.02</v>
+      </c>
+      <c r="B6">
+        <f>$C$3*EXP($B$3*A6)+$D$3</f>
+        <v>3.6655846490923683E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7">
+        <f>$C$3*EXP($B$3*A7)+$D$3</f>
+        <v>5.5484602155080109E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.04</v>
+      </c>
+      <c r="B8">
+        <f>$C$3*EXP($B$3*A8)+$D$3</f>
+        <v>7.4655344063813578E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.05</v>
+      </c>
+      <c r="B9">
+        <f>$C$3*EXP($B$3*A9)+$D$3</f>
+        <v>9.4174283705210415E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.06</v>
+      </c>
+      <c r="B10">
+        <f>$C$3*EXP($B$3*A10)+$D$3</f>
+        <v>0.11404774538646767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B11">
+        <f>$C$3*EXP($B$3*A11)+$D$3</f>
+        <v>0.13428216828302508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.08</v>
+      </c>
+      <c r="B12">
+        <f>$C$3*EXP($B$3*A12)+$D$3</f>
+        <v>0.15488410852491374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.09</v>
+      </c>
+      <c r="B13">
+        <f>$C$3*EXP($B$3*A13)+$D$3</f>
+        <v>0.17586024132099976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <f>$C$3*EXP($B$3*A14)+$D$3</f>
+        <v>0.19721736312181015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.11</v>
+      </c>
+      <c r="B15">
+        <f>$C$3*EXP($B$3*A15)+$D$3</f>
+        <v>0.21896239382164273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.12</v>
+      </c>
+      <c r="B16">
+        <f>$C$3*EXP($B$3*A16)+$D$3</f>
+        <v>0.24110237900067166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.13</v>
+      </c>
+      <c r="B17">
+        <f>$C$3*EXP($B$3*A17)+$D$3</f>
+        <v>0.26364449220777786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B18">
+        <f>$C$3*EXP($B$3*A18)+$D$3</f>
+        <v>0.28659603728484062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.15</v>
+      </c>
+      <c r="B19">
+        <f>$C$3*EXP($B$3*A19)+$D$3</f>
+        <v>0.3099644507332473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.16</v>
+      </c>
+      <c r="B20">
+        <f>$C$3*EXP($B$3*A20)+$D$3</f>
+        <v>0.33375730412338456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.17</v>
+      </c>
+      <c r="B21">
+        <f>$C$3*EXP($B$3*A21)+$D$3</f>
+        <v>0.35798230654789265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.18</v>
+      </c>
+      <c r="B22">
+        <f>$C$3*EXP($B$3*A22)+$D$3</f>
+        <v>0.38264730711947958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.19</v>
+      </c>
+      <c r="B23">
+        <f>$C$3*EXP($B$3*A23)+$D$3</f>
+        <v>0.40776029751410259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.2</v>
+      </c>
+      <c r="B24">
+        <f>$C$3*EXP($B$3*A24)+$D$3</f>
+        <v>0.43332941456034035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.21</v>
+      </c>
+      <c r="B25">
+        <f>$C$3*EXP($B$3*A25)+$D$3</f>
+        <v>0.4593629428757966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.22</v>
+      </c>
+      <c r="B26">
+        <f>$C$3*EXP($B$3*A26)+$D$3</f>
+        <v>0.48586931755138973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.23</v>
+      </c>
+      <c r="B27">
+        <f>$C$3*EXP($B$3*A27)+$D$3</f>
+        <v>0.51285712688439467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.24</v>
+      </c>
+      <c r="B28">
+        <f>$C$3*EXP($B$3*A28)+$D$3</f>
+        <v>0.54033511516112709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.25</v>
+      </c>
+      <c r="B29">
+        <f>$C$3*EXP($B$3*A29)+$D$3</f>
+        <v>0.56831218549016893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.26</v>
+      </c>
+      <c r="B30">
+        <f>$C$3*EXP($B$3*A30)+$D$3</f>
+        <v>0.59679740268705261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.27</v>
+      </c>
+      <c r="B31">
+        <f>$C$3*EXP($B$3*A31)+$D$3</f>
+        <v>0.62579999621134164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B32">
+        <f>$C$3*EXP($B$3*A32)+$D$3</f>
+        <v>0.65532936315705514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B33">
+        <f>$C$3*EXP($B$3*A33)+$D$3</f>
+        <v>0.68539507129740884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.3</v>
+      </c>
+      <c r="B34">
+        <f>$C$3*EXP($B$3*A34)+$D$3</f>
+        <v>0.71600686218485854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.31</v>
+      </c>
+      <c r="B35">
+        <f>$C$3*EXP($B$3*A35)+$D$3</f>
+        <v>0.74717465430744623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.32</v>
+      </c>
+      <c r="B36">
+        <f>$C$3*EXP($B$3*A36)+$D$3</f>
+        <v>0.77890854630247852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.33</v>
+      </c>
+      <c r="B37">
+        <f>$C$3*EXP($B$3*A37)+$D$3</f>
+        <v>0.81121882022857283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.34</v>
+      </c>
+      <c r="B38">
+        <f>$C$3*EXP($B$3*A38)+$D$3</f>
+        <v>0.84411594489713448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.35</v>
+      </c>
+      <c r="B39">
+        <f>$C$3*EXP($B$3*A39)+$D$3</f>
+        <v>0.87761057926434316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.36</v>
+      </c>
+      <c r="B40">
+        <f>$C$3*EXP($B$3*A40)+$D$3</f>
+        <v>0.91171357588474833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.37</v>
+      </c>
+      <c r="B41">
+        <f>$C$3*EXP($B$3*A41)+$D$3</f>
+        <v>0.94643598442759136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.38</v>
+      </c>
+      <c r="B42">
+        <f>$C$3*EXP($B$3*A42)+$D$3</f>
+        <v>0.98178905525699478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.39</v>
+      </c>
+      <c r="B43">
+        <f>$C$3*EXP($B$3*A43)+$D$3</f>
+        <v>1.0177842430771791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.4</v>
+      </c>
+      <c r="B44">
+        <f>$C$3*EXP($B$3*A44)+$D$3</f>
+        <v>1.0544332106438881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.41</v>
+      </c>
+      <c r="B45">
+        <f>$C$3*EXP($B$3*A45)+$D$3</f>
+        <v>1.0917478325432208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.42</v>
+      </c>
+      <c r="B46">
+        <f>$C$3*EXP($B$3*A46)+$D$3</f>
+        <v>1.1297401990391056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.43</v>
+      </c>
+      <c r="B47">
+        <f>$C$3*EXP($B$3*A47)+$D$3</f>
+        <v>1.1684226199906478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.44</v>
+      </c>
+      <c r="B48">
+        <f>$C$3*EXP($B$3*A48)+$D$3</f>
+        <v>1.2078076288406328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.45</v>
+      </c>
+      <c r="B49">
+        <f>$C$3*EXP($B$3*A49)+$D$3</f>
+        <v>1.2479079866764717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.46</v>
+      </c>
+      <c r="B50">
+        <f>$C$3*EXP($B$3*A50)+$D$3</f>
+        <v>1.288736686364905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.47</v>
+      </c>
+      <c r="B51">
+        <f>$C$3*EXP($B$3*A51)+$D$3</f>
+        <v>1.3303069567618055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.48</v>
+      </c>
+      <c r="B52">
+        <f>$C$3*EXP($B$3*A52)+$D$3</f>
+        <v>1.3726322669984423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.49</v>
+      </c>
+      <c r="B53">
+        <f>$C$3*EXP($B$3*A53)+$D$3</f>
+        <v>1.4157263308455978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.5</v>
+      </c>
+      <c r="B54">
+        <f>$C$3*EXP($B$3*A54)+$D$3</f>
+        <v>1.4596031111569499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.51</v>
+      </c>
+      <c r="B55">
+        <f>$C$3*EXP($B$3*A55)+$D$3</f>
+        <v>1.5042768243931568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.52</v>
+      </c>
+      <c r="B56">
+        <f>$C$3*EXP($B$3*A56)+$D$3</f>
+        <v>1.5497619452281173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.53</v>
+      </c>
+      <c r="B57">
+        <f>$C$3*EXP($B$3*A57)+$D$3</f>
+        <v>1.5960732112388905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.54</v>
+      </c>
+      <c r="B58">
+        <f>$C$3*EXP($B$3*A58)+$D$3</f>
+        <v>1.6432256276807986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B59">
+        <f>$C$3*EXP($B$3*A59)+$D$3</f>
+        <v>1.6912344723492625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B60">
+        <f>$C$3*EXP($B$3*A60)+$D$3</f>
+        <v>1.7401153005299417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B61">
+        <f>$C$3*EXP($B$3*A61)+$D$3</f>
+        <v>1.7898839500387789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B62">
+        <f>$C$3*EXP($B$3*A62)+$D$3</f>
+        <v>1.8405565463535978</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.59</v>
+      </c>
+      <c r="B63">
+        <f>$C$3*EXP($B$3*A63)+$D$3</f>
+        <v>1.8921495078388926</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.6</v>
+      </c>
+      <c r="B64">
+        <f>$C$3*EXP($B$3*A64)+$D$3</f>
+        <v>1.9446795510655241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.61</v>
+      </c>
+      <c r="B65">
+        <f>$C$3*EXP($B$3*A65)+$D$3</f>
+        <v>1.9981636962270355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.62</v>
+      </c>
+      <c r="B66">
+        <f>$C$3*EXP($B$3*A66)+$D$3</f>
+        <v>2.052619272654344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.63</v>
+      </c>
+      <c r="B67">
+        <f>$C$3*EXP($B$3*A67)+$D$3</f>
+        <v>2.1080639244305943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.64</v>
+      </c>
+      <c r="B68">
+        <f>$C$3*EXP($B$3*A68)+$D$3</f>
+        <v>2.1645156161079973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.65</v>
+      </c>
+      <c r="B69">
+        <f>$C$3*EXP($B$3*A69)+$D$3</f>
+        <v>2.2219926385285005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.66</v>
+      </c>
+      <c r="B70">
+        <f>$C$3*EXP($B$3*A70)+$D$3</f>
+        <v>2.2805136147501828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.67</v>
+      </c>
+      <c r="B71">
+        <f>$C$3*EXP($B$3*A71)+$D$3</f>
+        <v>2.3400975060812876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.68</v>
+      </c>
+      <c r="B72">
+        <f>$C$3*EXP($B$3*A72)+$D$3</f>
+        <v>2.4007636182238512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.69</v>
+      </c>
+      <c r="B73">
+        <f>$C$3*EXP($B$3*A73)+$D$3</f>
+        <v>2.4625316075289199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.7</v>
+      </c>
+      <c r="B74">
+        <f>$C$3*EXP($B$3*A74)+$D$3</f>
+        <v>2.5254214873653824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.71</v>
+      </c>
+      <c r="B75">
+        <f>$C$3*EXP($B$3*A75)+$D$3</f>
+        <v>2.5894536346044714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.72</v>
+      </c>
+      <c r="B76">
+        <f>$C$3*EXP($B$3*A76)+$D$3</f>
+        <v>2.6546487962220517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.73</v>
+      </c>
+      <c r="B77">
+        <f>$C$3*EXP($B$3*A77)+$D$3</f>
+        <v>2.7210280960208211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.74</v>
+      </c>
+      <c r="B78">
+        <f>$C$3*EXP($B$3*A78)+$D$3</f>
+        <v>2.7886130414746066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.75</v>
+      </c>
+      <c r="B79">
+        <f>$C$3*EXP($B$3*A79)+$D$3</f>
+        <v>2.8574255306969745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.76</v>
+      </c>
+      <c r="B80">
+        <f>$C$3*EXP($B$3*A80)+$D$3</f>
+        <v>2.9274878595364116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.77</v>
+      </c>
+      <c r="B81">
+        <f>$C$3*EXP($B$3*A81)+$D$3</f>
+        <v>2.998822728800373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.78</v>
+      </c>
+      <c r="B82">
+        <f>$C$3*EXP($B$3*A82)+$D$3</f>
+        <v>3.0714532516105448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.79</v>
+      </c>
+      <c r="B83">
+        <f>$C$3*EXP($B$3*A83)+$D$3</f>
+        <v>3.1454029608916967</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.8</v>
+      </c>
+      <c r="B84">
+        <f>$C$3*EXP($B$3*A84)+$D$3</f>
+        <v>3.2206958169965532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.81</v>
+      </c>
+      <c r="B85">
+        <f>$C$3*EXP($B$3*A85)+$D$3</f>
+        <v>3.2973562154691631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.82</v>
+      </c>
+      <c r="B86">
+        <f>$C$3*EXP($B$3*A86)+$D$3</f>
+        <v>3.3754089949492627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.83</v>
+      </c>
+      <c r="B87">
+        <f>$C$3*EXP($B$3*A87)+$D$3</f>
+        <v>3.4548794452202172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.84</v>
+      </c>
+      <c r="B88">
+        <f>$C$3*EXP($B$3*A88)+$D$3</f>
+        <v>3.5357933154031294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.85</v>
+      </c>
+      <c r="B89">
+        <f>$C$3*EXP($B$3*A89)+$D$3</f>
+        <v>3.6181768222997812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.86</v>
+      </c>
+      <c r="B90">
+        <f>$C$3*EXP($B$3*A90)+$D$3</f>
+        <v>3.7020566588871047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.87</v>
+      </c>
+      <c r="B91">
+        <f>$C$3*EXP($B$3*A91)+$D$3</f>
+        <v>3.7874600029659442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.88</v>
+      </c>
+      <c r="B92">
+        <f>$C$3*EXP($B$3*A92)+$D$3</f>
+        <v>3.8744145259668965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.89</v>
+      </c>
+      <c r="B93">
+        <f>$C$3*EXP($B$3*A93)+$D$3</f>
+        <v>3.9629484019161012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.9</v>
+      </c>
+      <c r="B94">
+        <f>$C$3*EXP($B$3*A94)+$D$3</f>
+        <v>4.0530903165638676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.91</v>
+      </c>
+      <c r="B95">
+        <f>$C$3*EXP($B$3*A95)+$D$3</f>
+        <v>4.144869476679113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.92</v>
+      </c>
+      <c r="B96">
+        <f>$C$3*EXP($B$3*A96)+$D$3</f>
+        <v>4.2383156195126066</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.93</v>
+      </c>
+      <c r="B97">
+        <f>$C$3*EXP($B$3*A97)+$D$3</f>
+        <v>4.3334590224321019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.94</v>
+      </c>
+      <c r="B98">
+        <f>$C$3*EXP($B$3*A98)+$D$3</f>
+        <v>4.4303305127324677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.95</v>
+      </c>
+      <c r="B99">
+        <f>$C$3*EXP($B$3*A99)+$D$3</f>
+        <v>4.5289614776240041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.96</v>
+      </c>
+      <c r="B100">
+        <f>$C$3*EXP($B$3*A100)+$D$3</f>
+        <v>4.6293838744021683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.97</v>
+      </c>
+      <c r="B101">
+        <f>$C$3*EXP($B$3*A101)+$D$3</f>
+        <v>4.7316302408020201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.98</v>
+      </c>
+      <c r="B102">
+        <f>$C$3*EXP($B$3*A102)+$D$3</f>
+        <v>4.8357337055407354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.99</v>
+      </c>
+      <c r="B103">
+        <f>$C$3*EXP($B$3*A103)+$D$3</f>
+        <v>4.9417279990515954</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <f>$C$3*EXP($B$3*A104)+$D$3</f>
+        <v>5.0496474644129465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>